--- a/INFORMACION/COTIZADOR  VEHICULAR CCC ASESORES 02 01 2019.xlsx
+++ b/INFORMACION/COTIZADOR  VEHICULAR CCC ASESORES 02 01 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericsonhuamanimantilla/Documents/2018/00 proyectos/01 claudia castañeda/sgap/INFORMACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAD3258-BA51-584E-8836-C2FDAD5625AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15B33E-5D59-1643-A1D3-73BB5898C3F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="936" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="500" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="936" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1 -CLA" sheetId="1" r:id="rId1"/>
@@ -5220,7 +5220,7 @@
     <numFmt numFmtId="167" formatCode="[$USS]\ #,##0.00"/>
     <numFmt numFmtId="168" formatCode="_ [$USD]\ * #,##0.00_ ;_ [$USD]\ * \-#,##0.00_ ;_ [$USD]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="95">
+  <fonts count="94">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5903,12 +5903,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7717,20 +7711,56 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7747,46 +7777,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7795,40 +7804,103 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="28" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="28" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,19 +7948,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="24" fillId="12" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="12" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="33" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7900,449 +7963,194 @@
     <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="28" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="28" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="69" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="37" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="45" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="51" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8380,179 +8188,365 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="51" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="69" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10113,27 +10107,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="29.25" customHeight="1">
-      <c r="B2" s="334" t="s">
+      <c r="B2" s="348" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="348"/>
+      <c r="N2" s="348"/>
+      <c r="O2" s="348"/>
+      <c r="P2" s="348"/>
+      <c r="Q2" s="348"/>
+      <c r="R2" s="348"/>
+      <c r="S2" s="348"/>
+      <c r="T2" s="348"/>
     </row>
     <row r="4" spans="2:25" ht="16" customHeight="1">
       <c r="B4" s="54" t="s">
@@ -16621,10 +16615,10 @@
         <v>229</v>
       </c>
       <c r="C5" s="155"/>
-      <c r="D5" s="338" t="s">
+      <c r="D5" s="351" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="338"/>
+      <c r="E5" s="351"/>
       <c r="H5" s="156" t="s">
         <v>173</v>
       </c>
@@ -16917,10 +16911,10 @@
     <row r="17" spans="2:15" ht="20" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="155"/>
-      <c r="D17" s="338" t="s">
+      <c r="D17" s="351" t="s">
         <v>454</v>
       </c>
-      <c r="E17" s="338"/>
+      <c r="E17" s="351"/>
       <c r="H17" s="160" t="str">
         <f t="shared" si="2"/>
         <v>Deducible para menor de 25 añosALTORIESGO</v>
@@ -16968,8 +16962,8 @@
         <v>182</v>
       </c>
       <c r="I19" s="155"/>
-      <c r="J19" s="338"/>
-      <c r="K19" s="338"/>
+      <c r="J19" s="351"/>
+      <c r="K19" s="351"/>
     </row>
     <row r="20" spans="2:15" ht="60" customHeight="1">
       <c r="B20" s="166" t="str">
@@ -17136,98 +17130,98 @@
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="H31" s="337"/>
-      <c r="I31" s="337"/>
-      <c r="J31" s="337"/>
-      <c r="K31" s="337"/>
+      <c r="H31" s="350"/>
+      <c r="I31" s="350"/>
+      <c r="J31" s="350"/>
+      <c r="K31" s="350"/>
       <c r="L31" s="174"/>
       <c r="M31" s="174"/>
       <c r="N31" s="174"/>
       <c r="O31" s="174"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="H32" s="337"/>
-      <c r="I32" s="337"/>
-      <c r="J32" s="337"/>
-      <c r="K32" s="337"/>
-      <c r="L32" s="337"/>
-      <c r="M32" s="337"/>
-      <c r="N32" s="337"/>
-      <c r="O32" s="337"/>
+      <c r="H32" s="350"/>
+      <c r="I32" s="350"/>
+      <c r="J32" s="350"/>
+      <c r="K32" s="350"/>
+      <c r="L32" s="350"/>
+      <c r="M32" s="350"/>
+      <c r="N32" s="350"/>
+      <c r="O32" s="350"/>
     </row>
     <row r="33" spans="8:15">
-      <c r="H33" s="337"/>
-      <c r="I33" s="337"/>
-      <c r="J33" s="337"/>
-      <c r="K33" s="337"/>
-      <c r="L33" s="337"/>
+      <c r="H33" s="350"/>
+      <c r="I33" s="350"/>
+      <c r="J33" s="350"/>
+      <c r="K33" s="350"/>
+      <c r="L33" s="350"/>
       <c r="M33" s="174"/>
       <c r="N33" s="174"/>
       <c r="O33" s="174"/>
     </row>
     <row r="34" spans="8:15">
-      <c r="H34" s="337"/>
-      <c r="I34" s="337"/>
-      <c r="J34" s="337"/>
-      <c r="K34" s="337"/>
-      <c r="L34" s="337"/>
-      <c r="M34" s="337"/>
-      <c r="N34" s="337"/>
-      <c r="O34" s="337"/>
+      <c r="H34" s="350"/>
+      <c r="I34" s="350"/>
+      <c r="J34" s="350"/>
+      <c r="K34" s="350"/>
+      <c r="L34" s="350"/>
+      <c r="M34" s="350"/>
+      <c r="N34" s="350"/>
+      <c r="O34" s="350"/>
     </row>
     <row r="35" spans="8:15">
-      <c r="H35" s="337"/>
-      <c r="I35" s="337"/>
-      <c r="J35" s="337"/>
-      <c r="K35" s="337"/>
-      <c r="L35" s="337"/>
+      <c r="H35" s="350"/>
+      <c r="I35" s="350"/>
+      <c r="J35" s="350"/>
+      <c r="K35" s="350"/>
+      <c r="L35" s="350"/>
       <c r="M35" s="174"/>
       <c r="N35" s="174"/>
       <c r="O35" s="174"/>
     </row>
     <row r="36" spans="8:15">
-      <c r="H36" s="337"/>
-      <c r="I36" s="337"/>
-      <c r="J36" s="337"/>
-      <c r="K36" s="337"/>
-      <c r="L36" s="337"/>
-      <c r="M36" s="337"/>
-      <c r="N36" s="337"/>
-      <c r="O36" s="337"/>
+      <c r="H36" s="350"/>
+      <c r="I36" s="350"/>
+      <c r="J36" s="350"/>
+      <c r="K36" s="350"/>
+      <c r="L36" s="350"/>
+      <c r="M36" s="350"/>
+      <c r="N36" s="350"/>
+      <c r="O36" s="350"/>
     </row>
     <row r="37" spans="8:15">
-      <c r="H37" s="337"/>
-      <c r="I37" s="337"/>
-      <c r="J37" s="337"/>
-      <c r="K37" s="337"/>
+      <c r="H37" s="350"/>
+      <c r="I37" s="350"/>
+      <c r="J37" s="350"/>
+      <c r="K37" s="350"/>
       <c r="L37" s="174"/>
       <c r="M37" s="174"/>
       <c r="N37" s="174"/>
       <c r="O37" s="174"/>
     </row>
     <row r="38" spans="8:15">
-      <c r="H38" s="337"/>
-      <c r="I38" s="337"/>
-      <c r="J38" s="337"/>
-      <c r="K38" s="337"/>
-      <c r="L38" s="337"/>
-      <c r="M38" s="337"/>
-      <c r="N38" s="337"/>
-      <c r="O38" s="337"/>
+      <c r="H38" s="350"/>
+      <c r="I38" s="350"/>
+      <c r="J38" s="350"/>
+      <c r="K38" s="350"/>
+      <c r="L38" s="350"/>
+      <c r="M38" s="350"/>
+      <c r="N38" s="350"/>
+      <c r="O38" s="350"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:O38"/>
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:O32"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:O38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -17263,15 +17257,15 @@
       <c r="B2" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="341" t="s">
+      <c r="H2" s="357" t="s">
         <v>234</v>
       </c>
-      <c r="I2" s="341"/>
-      <c r="J2" s="342">
+      <c r="I2" s="357"/>
+      <c r="J2" s="358">
         <f>+'INGRESO DE INFORMACION'!D32</f>
         <v>744.26234399999987</v>
       </c>
-      <c r="K2" s="342"/>
+      <c r="K2" s="358"/>
       <c r="L2" s="140"/>
       <c r="N2" s="139" t="s">
         <v>414</v>
@@ -17294,16 +17288,16 @@
       <c r="E4" s="141" t="s">
         <v>418</v>
       </c>
-      <c r="F4" s="343" t="s">
+      <c r="F4" s="359" t="s">
         <v>419</v>
       </c>
-      <c r="G4" s="343"/>
-      <c r="H4" s="343"/>
-      <c r="I4" s="343"/>
-      <c r="J4" s="343" t="s">
+      <c r="G4" s="359"/>
+      <c r="H4" s="359"/>
+      <c r="I4" s="359"/>
+      <c r="J4" s="359" t="s">
         <v>420</v>
       </c>
-      <c r="K4" s="343"/>
+      <c r="K4" s="359"/>
       <c r="L4" s="142"/>
       <c r="M4" s="143" t="s">
         <v>126</v>
@@ -17326,7 +17320,7 @@
       <c r="T4" s="146"/>
     </row>
     <row r="5" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B5" s="344" t="s">
+      <c r="B5" s="352" t="s">
         <v>421</v>
       </c>
       <c r="C5" s="30">
@@ -17338,17 +17332,17 @@
       <c r="E5" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="339" t="s">
+      <c r="F5" s="355" t="s">
         <v>423</v>
       </c>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="339"/>
-      <c r="J5" s="340">
+      <c r="G5" s="355"/>
+      <c r="H5" s="355"/>
+      <c r="I5" s="355"/>
+      <c r="J5" s="356">
         <f>+J2</f>
         <v>744.26234399999987</v>
       </c>
-      <c r="K5" s="340"/>
+      <c r="K5" s="356"/>
       <c r="L5" s="147"/>
       <c r="M5" s="30" t="str">
         <f>+N5&amp;O5</f>
@@ -17373,7 +17367,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B6" s="345"/>
+      <c r="B6" s="353"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
@@ -17383,17 +17377,17 @@
       <c r="E6" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="339" t="s">
+      <c r="F6" s="355" t="s">
         <v>423</v>
       </c>
-      <c r="G6" s="339"/>
-      <c r="H6" s="339"/>
-      <c r="I6" s="339"/>
-      <c r="J6" s="340">
+      <c r="G6" s="355"/>
+      <c r="H6" s="355"/>
+      <c r="I6" s="355"/>
+      <c r="J6" s="356">
         <f>+$J$2/C6</f>
         <v>372.13117199999994</v>
       </c>
-      <c r="K6" s="340"/>
+      <c r="K6" s="356"/>
       <c r="L6" s="147"/>
       <c r="M6" s="30" t="str">
         <f t="shared" ref="M6:M28" si="1">+N6&amp;O6</f>
@@ -17418,7 +17412,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B7" s="345"/>
+      <c r="B7" s="353"/>
       <c r="C7" s="30">
         <v>3</v>
       </c>
@@ -17428,17 +17422,17 @@
       <c r="E7" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="339" t="s">
+      <c r="F7" s="355" t="s">
         <v>423</v>
       </c>
-      <c r="G7" s="339"/>
-      <c r="H7" s="339"/>
-      <c r="I7" s="339"/>
-      <c r="J7" s="340">
+      <c r="G7" s="355"/>
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356">
         <f t="shared" ref="J7:J16" si="3">+$J$2/C7</f>
         <v>248.08744799999997</v>
       </c>
-      <c r="K7" s="340"/>
+      <c r="K7" s="356"/>
       <c r="L7" s="147"/>
       <c r="M7" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17463,7 +17457,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B8" s="345"/>
+      <c r="B8" s="353"/>
       <c r="C8" s="30">
         <v>4</v>
       </c>
@@ -17473,17 +17467,17 @@
       <c r="E8" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="339" t="s">
+      <c r="F8" s="355" t="s">
         <v>423</v>
       </c>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="340">
+      <c r="G8" s="355"/>
+      <c r="H8" s="355"/>
+      <c r="I8" s="355"/>
+      <c r="J8" s="356">
         <f t="shared" si="3"/>
         <v>186.06558599999997</v>
       </c>
-      <c r="K8" s="340"/>
+      <c r="K8" s="356"/>
       <c r="L8" s="147"/>
       <c r="M8" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17508,7 +17502,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B9" s="345"/>
+      <c r="B9" s="353"/>
       <c r="C9" s="30">
         <v>5</v>
       </c>
@@ -17518,17 +17512,17 @@
       <c r="E9" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="339" t="s">
+      <c r="F9" s="355" t="s">
         <v>423</v>
       </c>
-      <c r="G9" s="339"/>
-      <c r="H9" s="339"/>
-      <c r="I9" s="339"/>
-      <c r="J9" s="340">
+      <c r="G9" s="355"/>
+      <c r="H9" s="355"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="356">
         <f t="shared" si="3"/>
         <v>148.85246879999997</v>
       </c>
-      <c r="K9" s="340"/>
+      <c r="K9" s="356"/>
       <c r="L9" s="147"/>
       <c r="M9" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17553,7 +17547,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B10" s="345"/>
+      <c r="B10" s="353"/>
       <c r="C10" s="30">
         <v>6</v>
       </c>
@@ -17563,17 +17557,17 @@
       <c r="E10" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="339" t="s">
+      <c r="F10" s="355" t="s">
         <v>423</v>
       </c>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="340">
+      <c r="G10" s="355"/>
+      <c r="H10" s="355"/>
+      <c r="I10" s="355"/>
+      <c r="J10" s="356">
         <f t="shared" si="3"/>
         <v>124.04372399999998</v>
       </c>
-      <c r="K10" s="340"/>
+      <c r="K10" s="356"/>
       <c r="L10" s="147"/>
       <c r="M10" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17598,7 +17592,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B11" s="345"/>
+      <c r="B11" s="353"/>
       <c r="C11" s="30">
         <v>7</v>
       </c>
@@ -17608,17 +17602,17 @@
       <c r="E11" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="339" t="s">
+      <c r="F11" s="355" t="s">
         <v>425</v>
       </c>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="340">
+      <c r="G11" s="355"/>
+      <c r="H11" s="355"/>
+      <c r="I11" s="355"/>
+      <c r="J11" s="356">
         <f t="shared" si="3"/>
         <v>106.32319199999998</v>
       </c>
-      <c r="K11" s="340"/>
+      <c r="K11" s="356"/>
       <c r="L11" s="147"/>
       <c r="M11" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17643,7 +17637,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B12" s="345"/>
+      <c r="B12" s="353"/>
       <c r="C12" s="30">
         <v>8</v>
       </c>
@@ -17653,17 +17647,17 @@
       <c r="E12" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F12" s="339" t="s">
+      <c r="F12" s="355" t="s">
         <v>425</v>
       </c>
-      <c r="G12" s="339"/>
-      <c r="H12" s="339"/>
-      <c r="I12" s="339"/>
-      <c r="J12" s="340">
+      <c r="G12" s="355"/>
+      <c r="H12" s="355"/>
+      <c r="I12" s="355"/>
+      <c r="J12" s="356">
         <f t="shared" si="3"/>
         <v>93.032792999999984</v>
       </c>
-      <c r="K12" s="340"/>
+      <c r="K12" s="356"/>
       <c r="L12" s="147"/>
       <c r="M12" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17688,7 +17682,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B13" s="345"/>
+      <c r="B13" s="353"/>
       <c r="C13" s="30">
         <v>9</v>
       </c>
@@ -17698,17 +17692,17 @@
       <c r="E13" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F13" s="339" t="s">
+      <c r="F13" s="355" t="s">
         <v>426</v>
       </c>
-      <c r="G13" s="339"/>
-      <c r="H13" s="339"/>
-      <c r="I13" s="339"/>
-      <c r="J13" s="340">
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="356">
         <f t="shared" si="3"/>
         <v>82.695815999999979</v>
       </c>
-      <c r="K13" s="340"/>
+      <c r="K13" s="356"/>
       <c r="L13" s="147"/>
       <c r="M13" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17733,7 +17727,7 @@
       </c>
     </row>
     <row r="14" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B14" s="345"/>
+      <c r="B14" s="353"/>
       <c r="C14" s="30">
         <v>10</v>
       </c>
@@ -17743,17 +17737,17 @@
       <c r="E14" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="339" t="s">
+      <c r="F14" s="355" t="s">
         <v>426</v>
       </c>
-      <c r="G14" s="339"/>
-      <c r="H14" s="339"/>
-      <c r="I14" s="339"/>
-      <c r="J14" s="340">
+      <c r="G14" s="355"/>
+      <c r="H14" s="355"/>
+      <c r="I14" s="355"/>
+      <c r="J14" s="356">
         <f t="shared" si="3"/>
         <v>74.426234399999984</v>
       </c>
-      <c r="K14" s="340"/>
+      <c r="K14" s="356"/>
       <c r="L14" s="147"/>
       <c r="M14" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17778,7 +17772,7 @@
       </c>
     </row>
     <row r="15" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B15" s="345"/>
+      <c r="B15" s="353"/>
       <c r="C15" s="30">
         <v>11</v>
       </c>
@@ -17788,17 +17782,17 @@
       <c r="E15" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="339" t="s">
+      <c r="F15" s="355" t="s">
         <v>426</v>
       </c>
-      <c r="G15" s="339"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="340">
+      <c r="G15" s="355"/>
+      <c r="H15" s="355"/>
+      <c r="I15" s="355"/>
+      <c r="J15" s="356">
         <f t="shared" si="3"/>
         <v>67.660213090909082</v>
       </c>
-      <c r="K15" s="340"/>
+      <c r="K15" s="356"/>
       <c r="L15" s="147"/>
       <c r="M15" s="30" t="str">
         <f t="shared" si="1"/>
@@ -17823,7 +17817,7 @@
       </c>
     </row>
     <row r="16" spans="2:20" s="144" customFormat="1" ht="12">
-      <c r="B16" s="346"/>
+      <c r="B16" s="354"/>
       <c r="C16" s="30">
         <v>12</v>
       </c>
@@ -17833,17 +17827,17 @@
       <c r="E16" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="339" t="s">
+      <c r="F16" s="355" t="s">
         <v>426</v>
       </c>
-      <c r="G16" s="339"/>
-      <c r="H16" s="339"/>
-      <c r="I16" s="339"/>
-      <c r="J16" s="340">
+      <c r="G16" s="355"/>
+      <c r="H16" s="355"/>
+      <c r="I16" s="355"/>
+      <c r="J16" s="356">
         <f t="shared" si="3"/>
         <v>62.021861999999992</v>
       </c>
-      <c r="K16" s="340"/>
+      <c r="K16" s="356"/>
       <c r="L16" s="147"/>
       <c r="M16" s="30" t="str">
         <f t="shared" si="1"/>
@@ -18168,6 +18162,19 @@
     <row r="134" s="151" customFormat="1" ht="12"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -18184,19 +18191,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18236,16 +18230,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="3" customHeight="1"/>
     <row r="2" spans="2:13" ht="26.25" customHeight="1">
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="422" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="422"/>
+      <c r="H2" s="422"/>
+      <c r="I2" s="422"/>
     </row>
     <row r="3" spans="2:13">
       <c r="C3" s="99"/>
@@ -18260,7 +18254,7 @@
       </c>
       <c r="D4" s="99">
         <f ca="1">+TODAY()</f>
-        <v>43501</v>
+        <v>43513</v>
       </c>
       <c r="E4" s="152"/>
       <c r="F4" s="152"/>
@@ -18278,16 +18272,16 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="419" t="s">
+      <c r="B6" s="366" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="419"/>
-      <c r="D6" s="348"/>
-      <c r="E6" s="349"/>
-      <c r="F6" s="349"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="349"/>
-      <c r="I6" s="349"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="423"/>
+      <c r="E6" s="424"/>
+      <c r="F6" s="424"/>
+      <c r="G6" s="424"/>
+      <c r="H6" s="424"/>
+      <c r="I6" s="424"/>
     </row>
     <row r="7" spans="2:13" ht="9" customHeight="1">
       <c r="B7" s="210"/>
@@ -18311,10 +18305,10 @@
       <c r="E10" s="231" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="378" t="s">
+      <c r="F10" s="408" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="378"/>
+      <c r="G10" s="408"/>
       <c r="H10" s="231" t="s">
         <v>428</v>
       </c>
@@ -18322,10 +18316,10 @@
         <v>722</v>
       </c>
       <c r="J10" s="210"/>
-      <c r="K10" s="380" t="s">
+      <c r="K10" s="410" t="s">
         <v>683</v>
       </c>
-      <c r="L10" s="380"/>
+      <c r="L10" s="410"/>
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1">
       <c r="B11" s="232" t="s">
@@ -18340,10 +18334,10 @@
       <c r="E11" s="232" t="s">
         <v>727</v>
       </c>
-      <c r="F11" s="379">
+      <c r="F11" s="409">
         <v>22500</v>
       </c>
-      <c r="G11" s="379"/>
+      <c r="G11" s="409"/>
       <c r="H11" s="233" t="s">
         <v>424</v>
       </c>
@@ -18351,8 +18345,8 @@
         <v>723</v>
       </c>
       <c r="J11" s="230"/>
-      <c r="K11" s="380"/>
-      <c r="L11" s="380"/>
+      <c r="K11" s="410"/>
+      <c r="L11" s="410"/>
       <c r="M11" s="101"/>
     </row>
     <row r="12" spans="2:13" ht="18" hidden="1" customHeight="1">
@@ -18383,126 +18377,126 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1">
-      <c r="B15" s="358"/>
-      <c r="C15" s="359"/>
+      <c r="B15" s="367"/>
+      <c r="C15" s="368"/>
       <c r="D15" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="370" t="s">
+      <c r="E15" s="364" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="371"/>
-      <c r="G15" s="366" t="s">
+      <c r="F15" s="365"/>
+      <c r="G15" s="373" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="366"/>
+      <c r="H15" s="373"/>
       <c r="I15" s="49" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B16" s="356" t="s">
+      <c r="B16" s="431" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="357"/>
+      <c r="C16" s="432"/>
       <c r="D16" s="220" t="str">
         <f>+IFERROR(VLOOKUP('INGRESO DE INFORMACION'!B11&amp;'INGRESO DE INFORMACION'!C11,'V1 GPS'!A2:H35,8,0),"NO")</f>
         <v>NO</v>
       </c>
-      <c r="E16" s="390" t="str">
+      <c r="E16" s="362" t="str">
         <f>+IFERROR(VLOOKUP(B11&amp;C11,'V1 GPS'!J2:Q35,8,0),"NO")</f>
         <v>NO</v>
       </c>
-      <c r="F16" s="391"/>
-      <c r="G16" s="367" t="str">
+      <c r="F16" s="363"/>
+      <c r="G16" s="394" t="str">
         <f>+IFERROR(VLOOKUP(B11&amp;C11,'V1 GPS'!S2:Z35,8,0),"NO")</f>
         <v>NO</v>
       </c>
-      <c r="H16" s="367"/>
+      <c r="H16" s="394"/>
       <c r="I16" s="221" t="str">
         <f>+IFERROR(VLOOKUP(B11&amp;C11,'V1 GPS'!AB2:AI35,8,0),"NO")</f>
         <v>NO</v>
       </c>
-      <c r="K16" s="381" t="s">
+      <c r="K16" s="411" t="s">
         <v>257</v>
       </c>
-      <c r="L16" s="382"/>
-      <c r="M16" s="383"/>
+      <c r="L16" s="412"/>
+      <c r="M16" s="413"/>
     </row>
     <row r="17" spans="1:16" ht="3" customHeight="1">
-      <c r="B17" s="420"/>
-      <c r="C17" s="421"/>
+      <c r="B17" s="369"/>
+      <c r="C17" s="370"/>
       <c r="D17" s="222"/>
-      <c r="E17" s="417"/>
-      <c r="F17" s="418"/>
-      <c r="G17" s="365"/>
-      <c r="H17" s="365"/>
+      <c r="E17" s="360"/>
+      <c r="F17" s="361"/>
+      <c r="G17" s="436"/>
+      <c r="H17" s="436"/>
       <c r="I17" s="223"/>
       <c r="K17" s="190"/>
       <c r="L17" s="191"/>
       <c r="M17" s="192"/>
     </row>
     <row r="18" spans="1:16" ht="14.25" customHeight="1">
-      <c r="B18" s="356" t="s">
+      <c r="B18" s="431" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="357"/>
+      <c r="C18" s="432"/>
       <c r="D18" s="220" t="str">
         <f>+IFERROR(VLOOKUP(B11&amp;C11,'V1 -CLA'!B5:E111,4,0),"BAJORIESGO2")</f>
         <v>BAJORIESGO2</v>
       </c>
-      <c r="E18" s="390" t="str">
+      <c r="E18" s="362" t="str">
         <f>+IFERROR(VLOOKUP(B11&amp;C11,'V1 -CLA'!G5:J125,4,0),"BAJORIESGO")</f>
         <v>BAJORIESGO</v>
       </c>
-      <c r="F18" s="391"/>
-      <c r="G18" s="367" t="str">
+      <c r="F18" s="363"/>
+      <c r="G18" s="394" t="str">
         <f>+IFERROR(VLOOKUP(B11&amp;C11,'V1 -CLA'!L5:O101,4,0),"BAJORIESGO")</f>
         <v>BAJORIESGO</v>
       </c>
-      <c r="H18" s="367"/>
+      <c r="H18" s="394"/>
       <c r="I18" s="220" t="str">
         <f>+IFERROR(VLOOKUP(B11&amp;C11,'V1 -CLA'!Q5:T144,4,0),"BAJORIESGO1")</f>
         <v>BAJORIESGO1</v>
       </c>
-      <c r="K18" s="384" t="s">
+      <c r="K18" s="414" t="s">
         <v>264</v>
       </c>
-      <c r="L18" s="385"/>
-      <c r="M18" s="386"/>
+      <c r="L18" s="415"/>
+      <c r="M18" s="416"/>
     </row>
     <row r="19" spans="1:16" ht="3" customHeight="1">
       <c r="B19" s="193"/>
       <c r="C19" s="193"/>
       <c r="D19" s="48"/>
-      <c r="E19" s="370"/>
-      <c r="F19" s="371"/>
-      <c r="G19" s="366"/>
-      <c r="H19" s="366"/>
+      <c r="E19" s="364"/>
+      <c r="F19" s="365"/>
+      <c r="G19" s="373"/>
+      <c r="H19" s="373"/>
       <c r="I19" s="49"/>
       <c r="K19" s="190"/>
       <c r="L19" s="191"/>
       <c r="M19" s="192"/>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1">
-      <c r="B20" s="402" t="s">
+      <c r="B20" s="379" t="s">
         <v>716</v>
       </c>
-      <c r="C20" s="403"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="207">
         <f>+VLOOKUP(D18&amp;E11,'V1 TASAS'!B1:E81,4,0)</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E20" s="409">
+      <c r="E20" s="386">
         <f>+VLOOKUP(E18&amp;E11,'V1 TASAS'!G1:J61,4,0)</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F20" s="410"/>
-      <c r="G20" s="387">
+      <c r="F20" s="387"/>
+      <c r="G20" s="376">
         <f>+VLOOKUP(G21&amp;$G$18&amp;$E$11,'V1 TASAS'!$L$1:$P$181,5,0)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="H20" s="387"/>
+      <c r="H20" s="376"/>
       <c r="I20" s="207">
         <f>+VLOOKUP(I18&amp;E11,'V1 TASAS'!R1:U81,4,0)</f>
         <v>3.5999999999999997E-2</v>
@@ -18512,17 +18506,17 @@
       <c r="M20" s="192"/>
     </row>
     <row r="21" spans="1:16" ht="27.75" customHeight="1">
-      <c r="B21" s="407" t="s">
+      <c r="B21" s="384" t="s">
         <v>718</v>
       </c>
-      <c r="C21" s="408"/>
+      <c r="C21" s="385"/>
       <c r="D21" s="189">
         <v>0.2</v>
       </c>
-      <c r="E21" s="411">
+      <c r="E21" s="388">
         <v>0.2</v>
       </c>
-      <c r="F21" s="412"/>
+      <c r="F21" s="389"/>
       <c r="G21" s="395">
         <v>0.2</v>
       </c>
@@ -18537,18 +18531,18 @@
       <c r="P21" s="213"/>
     </row>
     <row r="22" spans="1:16" ht="27.75" customHeight="1">
-      <c r="B22" s="404" t="s">
+      <c r="B22" s="381" t="s">
         <v>717</v>
       </c>
-      <c r="C22" s="405"/>
-      <c r="D22" s="406"/>
-      <c r="E22" s="411" t="str">
+      <c r="C22" s="382"/>
+      <c r="D22" s="383"/>
+      <c r="E22" s="388" t="str">
         <f>+VLOOKUP(E18,O22:P24,2,0)</f>
         <v>BR</v>
       </c>
-      <c r="F22" s="412"/>
-      <c r="G22" s="388"/>
-      <c r="H22" s="389"/>
+      <c r="F22" s="389"/>
+      <c r="G22" s="417"/>
+      <c r="H22" s="418"/>
       <c r="I22" s="206"/>
       <c r="K22" s="190"/>
       <c r="L22" s="191"/>
@@ -18561,17 +18555,17 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1">
-      <c r="B23" s="360" t="s">
+      <c r="B23" s="377" t="s">
         <v>236</v>
       </c>
-      <c r="C23" s="361"/>
+      <c r="C23" s="378"/>
       <c r="D23" s="196">
         <v>0.1</v>
       </c>
-      <c r="E23" s="413">
+      <c r="E23" s="390">
         <v>0</v>
       </c>
-      <c r="F23" s="414"/>
+      <c r="F23" s="391"/>
       <c r="G23" s="399" t="s">
         <v>225</v>
       </c>
@@ -18579,11 +18573,11 @@
       <c r="I23" s="196" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="372" t="s">
+      <c r="K23" s="402" t="s">
         <v>267</v>
       </c>
-      <c r="L23" s="373"/>
-      <c r="M23" s="374"/>
+      <c r="L23" s="403"/>
+      <c r="M23" s="404"/>
       <c r="O23" s="214" t="s">
         <v>127</v>
       </c>
@@ -18595,24 +18589,24 @@
       <c r="A24" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="362" t="s">
+      <c r="B24" s="433" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="363"/>
+      <c r="C24" s="434"/>
       <c r="D24" s="227">
         <f>+D20*(100%-D23)</f>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="E24" s="409">
+      <c r="E24" s="386">
         <f>+E20*(100%-E23)</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F24" s="410"/>
-      <c r="G24" s="387">
+      <c r="F24" s="387"/>
+      <c r="G24" s="376">
         <f>+G20</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="H24" s="387"/>
+      <c r="H24" s="376"/>
       <c r="I24" s="227">
         <f>+I20</f>
         <v>3.5999999999999997E-2</v>
@@ -18628,17 +18622,17 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1">
-      <c r="B25" s="360" t="s">
+      <c r="B25" s="377" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="361"/>
+      <c r="C25" s="378"/>
       <c r="D25" s="196">
         <v>0.16669999999999999</v>
       </c>
-      <c r="E25" s="413">
+      <c r="E25" s="390">
         <v>0.19020000000000001</v>
       </c>
-      <c r="F25" s="414"/>
+      <c r="F25" s="391"/>
       <c r="G25" s="398">
         <v>0.2</v>
       </c>
@@ -18646,26 +18640,26 @@
       <c r="I25" s="196" t="s">
         <v>225</v>
       </c>
-      <c r="K25" s="375" t="s">
+      <c r="K25" s="405" t="s">
         <v>270</v>
       </c>
-      <c r="L25" s="376"/>
-      <c r="M25" s="377"/>
+      <c r="L25" s="406"/>
+      <c r="M25" s="407"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B26" s="422" t="s">
+      <c r="B26" s="371" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="423"/>
+      <c r="C26" s="372"/>
       <c r="D26" s="91">
         <f>+VLOOKUP(D25,'V1 Desccuentos Contra Comsiones'!B5:D16,2,0)</f>
         <v>0.16</v>
       </c>
-      <c r="E26" s="415">
+      <c r="E26" s="392">
         <f>+VLOOKUP(E25,'V1 Desccuentos Contra Comsiones'!O5:Q26,2,0)</f>
         <v>0.19</v>
       </c>
-      <c r="F26" s="416"/>
+      <c r="F26" s="393"/>
       <c r="G26" s="396">
         <f>+(G20-G27)/G20</f>
         <v>0</v>
@@ -18676,19 +18670,19 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25" customHeight="1">
-      <c r="B27" s="422" t="s">
+      <c r="B27" s="371" t="s">
         <v>684</v>
       </c>
-      <c r="C27" s="423"/>
+      <c r="C27" s="372"/>
       <c r="D27" s="91">
         <f>+D24*(100%-D26)</f>
         <v>2.7215999999999997E-2</v>
       </c>
-      <c r="E27" s="415">
+      <c r="E27" s="392">
         <f>E20*(100%-(E23+E26))</f>
         <v>3.0780000000000002E-2</v>
       </c>
-      <c r="F27" s="416"/>
+      <c r="F27" s="393"/>
       <c r="G27" s="396">
         <f>+VLOOKUP(G25&amp;G18&amp;E11,'V1 TASAS'!L1:P181,5,0)</f>
         <v>3.2500000000000001E-2</v>
@@ -18699,13 +18693,13 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="3" customHeight="1">
-      <c r="B28" s="358"/>
-      <c r="C28" s="359"/>
+      <c r="B28" s="367"/>
+      <c r="C28" s="368"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="370"/>
-      <c r="F28" s="371"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="366"/>
+      <c r="E28" s="364"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="373"/>
+      <c r="H28" s="373"/>
       <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="20.25" hidden="1" customHeight="1">
@@ -18717,16 +18711,16 @@
         <f>+$F$11*D27</f>
         <v>612.3599999999999</v>
       </c>
-      <c r="E29" s="350">
+      <c r="E29" s="425">
         <f>+$F$11*E27</f>
         <v>692.55000000000007</v>
       </c>
-      <c r="F29" s="351"/>
-      <c r="G29" s="392">
+      <c r="F29" s="426"/>
+      <c r="G29" s="419">
         <f>+$F$11*G27</f>
         <v>731.25</v>
       </c>
-      <c r="H29" s="392"/>
+      <c r="H29" s="419"/>
       <c r="I29" s="95">
         <f>+F11*I24</f>
         <v>809.99999999999989</v>
@@ -18743,14 +18737,14 @@
       <c r="D30" s="94">
         <v>350</v>
       </c>
-      <c r="E30" s="352">
+      <c r="E30" s="427">
         <v>350</v>
       </c>
-      <c r="F30" s="353"/>
-      <c r="G30" s="364">
+      <c r="F30" s="428"/>
+      <c r="G30" s="435">
         <v>350</v>
       </c>
-      <c r="H30" s="364"/>
+      <c r="H30" s="435"/>
       <c r="I30" s="94">
         <v>360</v>
       </c>
@@ -18767,40 +18761,40 @@
         <f>+MAX(D29:D30)</f>
         <v>612.3599999999999</v>
       </c>
-      <c r="E31" s="354">
+      <c r="E31" s="429">
         <f>+MAX(E29:E30)</f>
         <v>692.55000000000007</v>
       </c>
-      <c r="F31" s="355"/>
-      <c r="G31" s="393">
+      <c r="F31" s="430"/>
+      <c r="G31" s="420">
         <f>+MAX(G29:G30)</f>
         <v>731.25</v>
       </c>
-      <c r="H31" s="393"/>
+      <c r="H31" s="420"/>
       <c r="I31" s="228">
         <f>+MAX(I29:I30)</f>
         <v>809.99999999999989</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B32" s="400" t="s">
+      <c r="B32" s="374" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="401"/>
+      <c r="C32" s="375"/>
       <c r="D32" s="89">
         <f>+D31*1.2154</f>
         <v>744.26234399999987</v>
       </c>
-      <c r="E32" s="368">
+      <c r="E32" s="400">
         <f>+E31*1.2154</f>
         <v>841.72527000000014</v>
       </c>
-      <c r="F32" s="369"/>
-      <c r="G32" s="394">
+      <c r="F32" s="401"/>
+      <c r="G32" s="421">
         <f>+G31*1.2154</f>
         <v>888.76125000000002</v>
       </c>
-      <c r="H32" s="394"/>
+      <c r="H32" s="421"/>
       <c r="I32" s="197">
         <v>1122.9100000000001</v>
       </c>
@@ -18809,10 +18803,10 @@
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
       <c r="D33" s="48"/>
-      <c r="E33" s="370"/>
-      <c r="F33" s="371"/>
-      <c r="G33" s="366"/>
-      <c r="H33" s="366"/>
+      <c r="E33" s="364"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="373"/>
+      <c r="H33" s="373"/>
       <c r="I33" s="49"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1"/>
@@ -18828,14 +18822,44 @@
     <protectedRange sqref="I23:I25 G23:H25 D23:E25" name="Rango5"/>
   </protectedRanges>
   <mergeCells count="62">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="G24:H24"/>
@@ -18852,44 +18876,14 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -19001,10 +18995,10 @@
       <c r="N3" s="68"/>
       <c r="O3" s="68"/>
       <c r="P3" s="68"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="336"/>
+      <c r="Q3" s="437"/>
+      <c r="R3" s="437"/>
+      <c r="S3" s="437"/>
+      <c r="T3" s="437"/>
     </row>
     <row r="4" spans="2:20" ht="21">
       <c r="B4" s="53" t="s">
@@ -19037,7 +19031,7 @@
       <c r="G5" s="93">
         <v>0.2</v>
       </c>
-      <c r="H5" s="613"/>
+      <c r="H5" s="344"/>
       <c r="K5" s="73" t="s">
         <v>706</v>
       </c>
@@ -19075,7 +19069,7 @@
       <c r="G6" s="93">
         <v>0.18</v>
       </c>
-      <c r="H6" s="613"/>
+      <c r="H6" s="344"/>
       <c r="K6" s="72">
         <v>0.2</v>
       </c>
@@ -19095,7 +19089,7 @@
       <c r="Q6" s="70">
         <v>0</v>
       </c>
-      <c r="R6" s="610"/>
+      <c r="R6" s="341"/>
       <c r="S6" s="79"/>
       <c r="T6" s="80"/>
     </row>
@@ -19115,7 +19109,7 @@
       <c r="G7" s="93">
         <v>0.15</v>
       </c>
-      <c r="H7" s="613"/>
+      <c r="H7" s="344"/>
       <c r="K7" s="72">
         <v>0.19020000000000001</v>
       </c>
@@ -19135,7 +19129,7 @@
       <c r="Q7" s="70">
         <v>0.01</v>
       </c>
-      <c r="R7" s="610"/>
+      <c r="R7" s="341"/>
       <c r="S7" s="79"/>
       <c r="T7" s="80"/>
     </row>
@@ -19168,7 +19162,7 @@
       <c r="Q8" s="70">
         <v>0.02</v>
       </c>
-      <c r="R8" s="610"/>
+      <c r="R8" s="341"/>
       <c r="S8" s="79"/>
       <c r="T8" s="80"/>
     </row>
@@ -19201,7 +19195,7 @@
       <c r="Q9" s="70">
         <v>0.03</v>
       </c>
-      <c r="R9" s="610"/>
+      <c r="R9" s="341"/>
       <c r="S9" s="79"/>
       <c r="T9" s="80"/>
     </row>
@@ -19234,7 +19228,7 @@
       <c r="Q10" s="70">
         <v>0.04</v>
       </c>
-      <c r="R10" s="610"/>
+      <c r="R10" s="341"/>
       <c r="S10" s="79"/>
       <c r="T10" s="80"/>
     </row>
@@ -19267,7 +19261,7 @@
       <c r="Q11" s="70">
         <v>0.05</v>
       </c>
-      <c r="R11" s="610"/>
+      <c r="R11" s="341"/>
       <c r="S11" s="79"/>
       <c r="T11" s="80"/>
     </row>
@@ -19300,7 +19294,7 @@
       <c r="Q12" s="70">
         <v>0.06</v>
       </c>
-      <c r="R12" s="610"/>
+      <c r="R12" s="341"/>
       <c r="S12" s="79"/>
       <c r="T12" s="80"/>
     </row>
@@ -19333,7 +19327,7 @@
       <c r="Q13" s="70">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R13" s="610"/>
+      <c r="R13" s="341"/>
       <c r="S13" s="79"/>
       <c r="T13" s="80"/>
     </row>
@@ -19366,7 +19360,7 @@
       <c r="Q14" s="70">
         <v>0.08</v>
       </c>
-      <c r="R14" s="610"/>
+      <c r="R14" s="341"/>
       <c r="S14" s="79"/>
       <c r="T14" s="80"/>
     </row>
@@ -19399,7 +19393,7 @@
       <c r="Q15" s="70">
         <v>0.09</v>
       </c>
-      <c r="R15" s="610"/>
+      <c r="R15" s="341"/>
       <c r="S15" s="79"/>
       <c r="T15" s="80"/>
     </row>
@@ -19432,7 +19426,7 @@
       <c r="Q16" s="70">
         <v>0.1</v>
       </c>
-      <c r="R16" s="610"/>
+      <c r="R16" s="341"/>
       <c r="S16" s="79"/>
       <c r="T16" s="80"/>
     </row>
@@ -19450,7 +19444,7 @@
       <c r="Q17" s="70">
         <v>0.01</v>
       </c>
-      <c r="R17" s="611"/>
+      <c r="R17" s="342"/>
       <c r="S17" s="80"/>
       <c r="T17" s="78"/>
     </row>
@@ -19468,7 +19462,7 @@
       <c r="Q18" s="70">
         <v>0.02</v>
       </c>
-      <c r="R18" s="612"/>
+      <c r="R18" s="343"/>
       <c r="S18" s="79"/>
       <c r="T18" s="80"/>
     </row>
@@ -19486,7 +19480,7 @@
       <c r="Q19" s="70">
         <v>0.03</v>
       </c>
-      <c r="R19" s="612"/>
+      <c r="R19" s="343"/>
       <c r="S19" s="79"/>
       <c r="T19" s="80"/>
     </row>
@@ -19500,7 +19494,7 @@
       <c r="Q20" s="70">
         <v>0.04</v>
       </c>
-      <c r="R20" s="612"/>
+      <c r="R20" s="343"/>
       <c r="S20" s="79"/>
       <c r="T20" s="80"/>
     </row>
@@ -19514,7 +19508,7 @@
       <c r="Q21" s="70">
         <v>0.05</v>
       </c>
-      <c r="R21" s="612"/>
+      <c r="R21" s="343"/>
       <c r="S21" s="79"/>
       <c r="T21" s="80"/>
     </row>
@@ -19528,7 +19522,7 @@
       <c r="Q22" s="70">
         <v>0.06</v>
       </c>
-      <c r="R22" s="612"/>
+      <c r="R22" s="343"/>
       <c r="S22" s="79"/>
       <c r="T22" s="80"/>
     </row>
@@ -19542,7 +19536,7 @@
       <c r="Q23" s="70">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R23" s="612"/>
+      <c r="R23" s="343"/>
       <c r="S23" s="79"/>
       <c r="T23" s="80"/>
     </row>
@@ -19556,7 +19550,7 @@
       <c r="Q24" s="70">
         <v>0.08</v>
       </c>
-      <c r="R24" s="612"/>
+      <c r="R24" s="343"/>
       <c r="S24" s="79"/>
       <c r="T24" s="80"/>
     </row>
@@ -19570,7 +19564,7 @@
       <c r="Q25" s="70">
         <v>0.09</v>
       </c>
-      <c r="R25" s="612"/>
+      <c r="R25" s="343"/>
       <c r="S25" s="79"/>
       <c r="T25" s="80"/>
     </row>
@@ -19584,7 +19578,7 @@
       <c r="Q26" s="70">
         <v>0.1</v>
       </c>
-      <c r="R26" s="612"/>
+      <c r="R26" s="343"/>
       <c r="S26" s="79"/>
       <c r="T26" s="80"/>
     </row>
@@ -19751,7 +19745,7 @@
   </sheetPr>
   <dimension ref="A1:AN146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="287" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="94" zoomScaleNormal="287" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -19787,22 +19781,22 @@
       <c r="P1" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="588">
+      <c r="Q1" s="438">
         <v>2018</v>
       </c>
-      <c r="R1" s="588"/>
+      <c r="R1" s="438"/>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="101"/>
       <c r="B2" s="101"/>
       <c r="C2" s="104"/>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="589"/>
-      <c r="I2" s="589"/>
-      <c r="J2" s="589"/>
-      <c r="K2" s="589"/>
-      <c r="L2" s="589"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+      <c r="H2" s="439"/>
+      <c r="I2" s="439"/>
+      <c r="J2" s="439"/>
+      <c r="K2" s="439"/>
+      <c r="L2" s="439"/>
       <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1">
@@ -19828,30 +19822,30 @@
     </row>
     <row r="6" spans="1:18" ht="21" customHeight="1">
       <c r="A6" s="101"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="440" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="590"/>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="590"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="590"/>
+      <c r="C6" s="440"/>
+      <c r="D6" s="440"/>
+      <c r="E6" s="440"/>
+      <c r="F6" s="440"/>
+      <c r="G6" s="440"/>
+      <c r="H6" s="440"/>
+      <c r="I6" s="440"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="440"/>
+      <c r="L6" s="440"/>
       <c r="M6" s="100"/>
       <c r="N6" s="105"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1">
       <c r="A7" s="101"/>
-      <c r="I7" s="602" t="s">
+      <c r="I7" s="456" t="s">
         <v>681</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="602"/>
-      <c r="L7" s="602"/>
+      <c r="J7" s="456"/>
+      <c r="K7" s="456"/>
+      <c r="L7" s="456"/>
       <c r="M7" s="100"/>
       <c r="N7" s="105"/>
     </row>
@@ -19862,19 +19856,19 @@
     </row>
     <row r="9" spans="1:18" s="100" customFormat="1" ht="19.5" customHeight="1">
       <c r="C9" s="106"/>
-      <c r="I9" s="614" t="s">
+      <c r="I9" s="345" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="615">
+      <c r="J9" s="346">
         <f ca="1">+TODAY()</f>
-        <v>43501</v>
-      </c>
-      <c r="K9" s="616" t="s">
+        <v>43513</v>
+      </c>
+      <c r="K9" s="347" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="615">
+      <c r="L9" s="346">
         <f ca="1">+J9+7</f>
-        <v>43508</v>
+        <v>43520</v>
       </c>
       <c r="N9" s="108"/>
       <c r="O9" s="107"/>
@@ -19900,45 +19894,45 @@
       <c r="O11" s="107"/>
     </row>
     <row r="12" spans="1:18" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="591" t="s">
+      <c r="B12" s="441" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="591"/>
-      <c r="D12" s="591"/>
-      <c r="E12" s="591" t="s">
+      <c r="C12" s="441"/>
+      <c r="D12" s="441"/>
+      <c r="E12" s="441" t="s">
         <v>726</v>
       </c>
-      <c r="F12" s="591"/>
-      <c r="G12" s="591"/>
+      <c r="F12" s="441"/>
+      <c r="G12" s="441"/>
       <c r="N12" s="108"/>
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:18" s="100" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="591" t="s">
+      <c r="B13" s="441" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="591"/>
-      <c r="D13" s="591"/>
-      <c r="E13" s="591" t="str">
+      <c r="C13" s="441"/>
+      <c r="D13" s="441"/>
+      <c r="E13" s="441" t="str">
         <f>+'INGRESO DE INFORMACION'!H11</f>
         <v>NATURAL</v>
       </c>
-      <c r="F13" s="591"/>
-      <c r="G13" s="591"/>
+      <c r="F13" s="441"/>
+      <c r="G13" s="441"/>
       <c r="N13" s="108"/>
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:18" s="100" customFormat="1" ht="4.5" customHeight="1" thickBot="1">
-      <c r="B14" s="591"/>
-      <c r="C14" s="591"/>
-      <c r="D14" s="591"/>
+      <c r="B14" s="441"/>
+      <c r="C14" s="441"/>
+      <c r="D14" s="441"/>
       <c r="N14" s="108"/>
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:18" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B15" s="601"/>
-      <c r="C15" s="601"/>
-      <c r="D15" s="601"/>
+      <c r="B15" s="454"/>
+      <c r="C15" s="454"/>
+      <c r="D15" s="454"/>
       <c r="E15" s="110"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
@@ -19954,11 +19948,11 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="2:30" ht="15" customHeight="1">
-      <c r="B17" s="555" t="s">
+      <c r="B17" s="455" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="555"/>
-      <c r="D17" s="555"/>
+      <c r="C17" s="455"/>
+      <c r="D17" s="455"/>
       <c r="N17" s="111"/>
       <c r="S17" s="101">
         <v>2179.6799999999998</v>
@@ -19968,56 +19962,56 @@
       <c r="N18" s="111"/>
     </row>
     <row r="19" spans="2:30" ht="19.5" customHeight="1">
-      <c r="B19" s="594" t="s">
+      <c r="B19" s="446" t="s">
         <v>248</v>
       </c>
-      <c r="C19" s="594"/>
-      <c r="D19" s="594" t="s">
+      <c r="C19" s="446"/>
+      <c r="D19" s="446" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="594"/>
-      <c r="F19" s="594" t="s">
+      <c r="E19" s="446"/>
+      <c r="F19" s="446" t="s">
         <v>250</v>
       </c>
-      <c r="G19" s="594"/>
-      <c r="H19" s="594" t="s">
+      <c r="G19" s="446"/>
+      <c r="H19" s="446" t="s">
         <v>251</v>
       </c>
-      <c r="I19" s="594"/>
-      <c r="J19" s="595" t="s">
+      <c r="I19" s="446"/>
+      <c r="J19" s="447" t="s">
         <v>252</v>
       </c>
-      <c r="K19" s="596"/>
-      <c r="L19" s="597"/>
+      <c r="K19" s="448"/>
+      <c r="L19" s="449"/>
       <c r="N19" s="111"/>
     </row>
     <row r="20" spans="2:30" ht="27" customHeight="1">
-      <c r="B20" s="484" t="str">
+      <c r="B20" s="450" t="str">
         <f>+'INGRESO DE INFORMACION'!D11</f>
         <v>AUTOMOVIL</v>
       </c>
-      <c r="C20" s="484"/>
-      <c r="D20" s="484" t="str">
+      <c r="C20" s="450"/>
+      <c r="D20" s="450" t="str">
         <f>+'INGRESO DE INFORMACION'!B11</f>
         <v>BMW</v>
       </c>
-      <c r="E20" s="484"/>
-      <c r="F20" s="484" t="str">
+      <c r="E20" s="450"/>
+      <c r="F20" s="450" t="str">
         <f>+'INGRESO DE INFORMACION'!C11</f>
         <v>120i</v>
       </c>
-      <c r="G20" s="484"/>
-      <c r="H20" s="484" t="str">
+      <c r="G20" s="450"/>
+      <c r="H20" s="450" t="str">
         <f>+'INGRESO DE INFORMACION'!E11</f>
         <v>NUEVO 2018</v>
       </c>
-      <c r="I20" s="484"/>
-      <c r="J20" s="598">
+      <c r="I20" s="450"/>
+      <c r="J20" s="451">
         <f>+'INGRESO DE INFORMACION'!F11</f>
         <v>22500</v>
       </c>
-      <c r="K20" s="599"/>
-      <c r="L20" s="600"/>
+      <c r="K20" s="452"/>
+      <c r="L20" s="453"/>
       <c r="N20" s="105"/>
     </row>
     <row r="21" spans="2:30" ht="11.25" customHeight="1">
@@ -20065,11 +20059,11 @@
       <c r="N23" s="105"/>
     </row>
     <row r="24" spans="2:30" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B24" s="555" t="s">
+      <c r="B24" s="455" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="555"/>
-      <c r="D24" s="555"/>
+      <c r="C24" s="455"/>
+      <c r="D24" s="455"/>
     </row>
     <row r="25" spans="2:30" ht="23.25" customHeight="1" thickTop="1">
       <c r="B25" s="110"/>
@@ -20097,85 +20091,85 @@
       <c r="L26" s="100"/>
     </row>
     <row r="27" spans="2:30" ht="40.5" customHeight="1">
-      <c r="B27" s="575"/>
-      <c r="C27" s="576"/>
-      <c r="D27" s="577"/>
-      <c r="E27" s="581"/>
-      <c r="F27" s="558"/>
-      <c r="G27" s="559"/>
-      <c r="H27" s="560"/>
-      <c r="I27" s="561"/>
-      <c r="J27" s="562"/>
-      <c r="K27" s="563"/>
-      <c r="L27" s="564"/>
+      <c r="B27" s="464"/>
+      <c r="C27" s="465"/>
+      <c r="D27" s="466"/>
+      <c r="E27" s="470"/>
+      <c r="F27" s="471"/>
+      <c r="G27" s="474"/>
+      <c r="H27" s="475"/>
+      <c r="I27" s="478"/>
+      <c r="J27" s="479"/>
+      <c r="K27" s="442"/>
+      <c r="L27" s="443"/>
       <c r="N27" s="105"/>
       <c r="O27" s="101"/>
     </row>
     <row r="28" spans="2:30" ht="0.75" customHeight="1">
-      <c r="B28" s="578"/>
-      <c r="C28" s="579"/>
-      <c r="D28" s="580"/>
-      <c r="E28" s="582"/>
-      <c r="F28" s="583"/>
-      <c r="G28" s="584"/>
-      <c r="H28" s="585"/>
-      <c r="I28" s="586"/>
-      <c r="J28" s="587"/>
-      <c r="K28" s="592"/>
-      <c r="L28" s="593"/>
+      <c r="B28" s="467"/>
+      <c r="C28" s="468"/>
+      <c r="D28" s="469"/>
+      <c r="E28" s="472"/>
+      <c r="F28" s="473"/>
+      <c r="G28" s="476"/>
+      <c r="H28" s="477"/>
+      <c r="I28" s="480"/>
+      <c r="J28" s="481"/>
+      <c r="K28" s="444"/>
+      <c r="L28" s="445"/>
       <c r="N28" s="105"/>
       <c r="O28" s="101"/>
     </row>
     <row r="29" spans="2:30" ht="25" hidden="1" customHeight="1">
-      <c r="B29" s="570" t="s">
+      <c r="B29" s="457" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="571"/>
-      <c r="D29" s="572"/>
-      <c r="E29" s="573" t="e">
+      <c r="C29" s="458"/>
+      <c r="D29" s="459"/>
+      <c r="E29" s="460" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F29" s="573"/>
-      <c r="G29" s="574" t="e">
+      <c r="F29" s="460"/>
+      <c r="G29" s="461" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="574"/>
-      <c r="I29" s="574">
+      <c r="H29" s="461"/>
+      <c r="I29" s="461">
         <f>+I30*1.2</f>
         <v>1066.5135</v>
       </c>
-      <c r="J29" s="574"/>
+      <c r="J29" s="461"/>
       <c r="N29" s="105"/>
       <c r="O29" s="101"/>
     </row>
     <row r="30" spans="2:30" ht="25.5" customHeight="1">
-      <c r="B30" s="565" t="s">
+      <c r="B30" s="462" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="565"/>
-      <c r="D30" s="565"/>
-      <c r="E30" s="567">
+      <c r="C30" s="462"/>
+      <c r="D30" s="462"/>
+      <c r="E30" s="463">
         <f>+'INGRESO DE INFORMACION'!D32</f>
         <v>744.26234399999987</v>
       </c>
-      <c r="F30" s="567"/>
-      <c r="G30" s="567">
+      <c r="F30" s="463"/>
+      <c r="G30" s="463">
         <f>+'INGRESO DE INFORMACION'!E32</f>
         <v>841.72527000000014</v>
       </c>
-      <c r="H30" s="567"/>
-      <c r="I30" s="567">
+      <c r="H30" s="463"/>
+      <c r="I30" s="463">
         <f>+'INGRESO DE INFORMACION'!G32</f>
         <v>888.76125000000002</v>
       </c>
-      <c r="J30" s="567"/>
-      <c r="K30" s="567">
+      <c r="J30" s="463"/>
+      <c r="K30" s="463">
         <f>+'INGRESO DE INFORMACION'!I32</f>
         <v>1122.9100000000001</v>
       </c>
-      <c r="L30" s="567"/>
+      <c r="L30" s="463"/>
       <c r="N30" s="101"/>
       <c r="O30" s="101"/>
       <c r="AB30" s="154"/>
@@ -20183,31 +20177,31 @@
       <c r="AD30" s="100"/>
     </row>
     <row r="31" spans="2:30" ht="25" hidden="1" customHeight="1" thickBot="1">
-      <c r="B31" s="568" t="s">
+      <c r="B31" s="483" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="568"/>
-      <c r="D31" s="568"/>
-      <c r="E31" s="569" t="e">
+      <c r="C31" s="483"/>
+      <c r="D31" s="483"/>
+      <c r="E31" s="484" t="e">
         <f>+E29-E30</f>
         <v>#REF!</v>
       </c>
-      <c r="F31" s="569"/>
-      <c r="G31" s="569" t="e">
+      <c r="F31" s="484"/>
+      <c r="G31" s="484" t="e">
         <f>+G29-G30</f>
         <v>#REF!</v>
       </c>
-      <c r="H31" s="569"/>
-      <c r="I31" s="569">
+      <c r="H31" s="484"/>
+      <c r="I31" s="484">
         <f>+I29-I30</f>
         <v>177.75225</v>
       </c>
-      <c r="J31" s="569"/>
-      <c r="K31" s="569" t="e">
+      <c r="J31" s="484"/>
+      <c r="K31" s="484" t="e">
         <f>+#REF!-K30</f>
         <v>#REF!</v>
       </c>
-      <c r="L31" s="569"/>
+      <c r="L31" s="484"/>
       <c r="N31" s="101"/>
       <c r="O31" s="101"/>
       <c r="AB31" s="153"/>
@@ -20215,31 +20209,31 @@
       <c r="AD31" s="100"/>
     </row>
     <row r="32" spans="2:30" ht="25" customHeight="1">
-      <c r="B32" s="565" t="s">
+      <c r="B32" s="462" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="565"/>
-      <c r="D32" s="565"/>
-      <c r="E32" s="566" t="str">
+      <c r="C32" s="462"/>
+      <c r="D32" s="462"/>
+      <c r="E32" s="482" t="str">
         <f>+'INGRESO DE INFORMACION'!D16</f>
         <v>NO</v>
       </c>
-      <c r="F32" s="566"/>
-      <c r="G32" s="566" t="str">
+      <c r="F32" s="482"/>
+      <c r="G32" s="482" t="str">
         <f>+'INGRESO DE INFORMACION'!E16</f>
         <v>NO</v>
       </c>
-      <c r="H32" s="566"/>
-      <c r="I32" s="566" t="str">
+      <c r="H32" s="482"/>
+      <c r="I32" s="482" t="str">
         <f>+'INGRESO DE INFORMACION'!G16</f>
         <v>NO</v>
       </c>
-      <c r="J32" s="566"/>
-      <c r="K32" s="566" t="str">
+      <c r="J32" s="482"/>
+      <c r="K32" s="482" t="str">
         <f>+'INGRESO DE INFORMACION'!I16</f>
         <v>NO</v>
       </c>
-      <c r="L32" s="566"/>
+      <c r="L32" s="482"/>
       <c r="N32" s="101"/>
       <c r="O32" s="101"/>
       <c r="AB32" s="153"/>
@@ -20273,13 +20267,13 @@
       <c r="AD34" s="100"/>
     </row>
     <row r="35" spans="2:30" ht="20" customHeight="1" thickBot="1">
-      <c r="B35" s="556" t="s">
+      <c r="B35" s="497" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="556"/>
-      <c r="D35" s="556"/>
-      <c r="E35" s="556"/>
-      <c r="F35" s="556"/>
+      <c r="C35" s="497"/>
+      <c r="D35" s="497"/>
+      <c r="E35" s="497"/>
+      <c r="F35" s="497"/>
       <c r="G35" s="100"/>
       <c r="H35" s="100"/>
       <c r="I35" s="100"/>
@@ -20309,14 +20303,14 @@
       <c r="D37" s="116" t="s">
         <v>274</v>
       </c>
-      <c r="E37" s="557"/>
-      <c r="F37" s="558"/>
-      <c r="G37" s="559"/>
-      <c r="H37" s="560"/>
-      <c r="I37" s="561"/>
-      <c r="J37" s="562"/>
-      <c r="K37" s="563"/>
-      <c r="L37" s="564"/>
+      <c r="E37" s="498"/>
+      <c r="F37" s="471"/>
+      <c r="G37" s="474"/>
+      <c r="H37" s="475"/>
+      <c r="I37" s="478"/>
+      <c r="J37" s="479"/>
+      <c r="K37" s="442"/>
+      <c r="L37" s="443"/>
       <c r="M37" s="100"/>
       <c r="N37" s="101"/>
       <c r="O37" s="101"/>
@@ -20664,49 +20658,49 @@
     </row>
     <row r="51" spans="2:19" ht="14" customHeight="1">
       <c r="C51" s="100"/>
-      <c r="D51" s="543" t="s">
+      <c r="D51" s="485" t="s">
         <v>280</v>
       </c>
-      <c r="E51" s="544"/>
-      <c r="F51" s="544"/>
-      <c r="G51" s="544"/>
-      <c r="H51" s="544"/>
-      <c r="I51" s="544"/>
-      <c r="J51" s="544"/>
-      <c r="K51" s="544"/>
-      <c r="L51" s="545"/>
+      <c r="E51" s="486"/>
+      <c r="F51" s="486"/>
+      <c r="G51" s="486"/>
+      <c r="H51" s="486"/>
+      <c r="I51" s="486"/>
+      <c r="J51" s="486"/>
+      <c r="K51" s="486"/>
+      <c r="L51" s="487"/>
       <c r="N51" s="101"/>
       <c r="O51" s="101"/>
     </row>
     <row r="52" spans="2:19" ht="14" customHeight="1">
       <c r="C52" s="100"/>
-      <c r="D52" s="546" t="s">
+      <c r="D52" s="488" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="547"/>
-      <c r="F52" s="547"/>
-      <c r="G52" s="547"/>
-      <c r="H52" s="547"/>
-      <c r="I52" s="547"/>
-      <c r="J52" s="547"/>
-      <c r="K52" s="547"/>
-      <c r="L52" s="548"/>
+      <c r="E52" s="489"/>
+      <c r="F52" s="489"/>
+      <c r="G52" s="489"/>
+      <c r="H52" s="489"/>
+      <c r="I52" s="489"/>
+      <c r="J52" s="489"/>
+      <c r="K52" s="489"/>
+      <c r="L52" s="490"/>
       <c r="N52" s="101"/>
       <c r="O52" s="101"/>
     </row>
     <row r="53" spans="2:19" ht="14" customHeight="1">
       <c r="C53" s="100"/>
-      <c r="D53" s="549" t="s">
+      <c r="D53" s="491" t="s">
         <v>282</v>
       </c>
-      <c r="E53" s="550"/>
-      <c r="F53" s="550"/>
-      <c r="G53" s="550"/>
-      <c r="H53" s="550"/>
-      <c r="I53" s="550"/>
-      <c r="J53" s="550"/>
-      <c r="K53" s="550"/>
-      <c r="L53" s="551"/>
+      <c r="E53" s="492"/>
+      <c r="F53" s="492"/>
+      <c r="G53" s="492"/>
+      <c r="H53" s="492"/>
+      <c r="I53" s="492"/>
+      <c r="J53" s="492"/>
+      <c r="K53" s="492"/>
+      <c r="L53" s="493"/>
       <c r="N53" s="101"/>
       <c r="O53" s="101"/>
     </row>
@@ -20753,19 +20747,19 @@
       <c r="O56" s="101"/>
     </row>
     <row r="57" spans="2:19" ht="81" customHeight="1">
-      <c r="B57" s="552" t="s">
+      <c r="B57" s="494" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="553"/>
-      <c r="D57" s="553"/>
-      <c r="E57" s="553"/>
-      <c r="F57" s="553"/>
-      <c r="G57" s="553"/>
-      <c r="H57" s="553"/>
-      <c r="I57" s="553"/>
-      <c r="J57" s="553"/>
-      <c r="K57" s="553"/>
-      <c r="L57" s="554"/>
+      <c r="C57" s="495"/>
+      <c r="D57" s="495"/>
+      <c r="E57" s="495"/>
+      <c r="F57" s="495"/>
+      <c r="G57" s="495"/>
+      <c r="H57" s="495"/>
+      <c r="I57" s="495"/>
+      <c r="J57" s="495"/>
+      <c r="K57" s="495"/>
+      <c r="L57" s="496"/>
       <c r="N57" s="105"/>
       <c r="O57" s="101"/>
     </row>
@@ -20790,19 +20784,19 @@
       <c r="O61" s="101"/>
     </row>
     <row r="62" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B62" s="555" t="s">
+      <c r="B62" s="455" t="s">
         <v>284</v>
       </c>
-      <c r="C62" s="555"/>
-      <c r="D62" s="555"/>
-      <c r="E62" s="555"/>
-      <c r="F62" s="555"/>
-      <c r="G62" s="555"/>
-      <c r="H62" s="555"/>
-      <c r="I62" s="555"/>
-      <c r="J62" s="555"/>
-      <c r="K62" s="555"/>
-      <c r="L62" s="555"/>
+      <c r="C62" s="455"/>
+      <c r="D62" s="455"/>
+      <c r="E62" s="455"/>
+      <c r="F62" s="455"/>
+      <c r="G62" s="455"/>
+      <c r="H62" s="455"/>
+      <c r="I62" s="455"/>
+      <c r="J62" s="455"/>
+      <c r="K62" s="455"/>
+      <c r="L62" s="455"/>
       <c r="N62" s="101"/>
       <c r="O62" s="101"/>
     </row>
@@ -20821,155 +20815,155 @@
       <c r="O63" s="101"/>
     </row>
     <row r="64" spans="2:19" ht="44.25" customHeight="1">
-      <c r="B64" s="476" t="s">
+      <c r="B64" s="512" t="s">
         <v>285</v>
       </c>
-      <c r="C64" s="476"/>
-      <c r="D64" s="476"/>
+      <c r="C64" s="512"/>
+      <c r="D64" s="512"/>
       <c r="E64" s="126"/>
       <c r="F64" s="126"/>
-      <c r="G64" s="477"/>
-      <c r="H64" s="477"/>
-      <c r="I64" s="478"/>
-      <c r="J64" s="479"/>
-      <c r="K64" s="480"/>
-      <c r="L64" s="481"/>
+      <c r="G64" s="513"/>
+      <c r="H64" s="513"/>
+      <c r="I64" s="514"/>
+      <c r="J64" s="515"/>
+      <c r="K64" s="516"/>
+      <c r="L64" s="517"/>
       <c r="N64" s="101"/>
       <c r="O64" s="101"/>
       <c r="R64" s="127"/>
       <c r="S64" s="128"/>
     </row>
     <row r="65" spans="2:34" ht="20.25" customHeight="1">
-      <c r="B65" s="436" t="s">
+      <c r="B65" s="518" t="s">
         <v>371</v>
       </c>
-      <c r="C65" s="436"/>
-      <c r="D65" s="436"/>
-      <c r="E65" s="437" t="s">
+      <c r="C65" s="518"/>
+      <c r="D65" s="518"/>
+      <c r="E65" s="505" t="s">
         <v>430</v>
       </c>
-      <c r="F65" s="437"/>
-      <c r="G65" s="437" t="s">
+      <c r="F65" s="505"/>
+      <c r="G65" s="505" t="s">
         <v>321</v>
       </c>
-      <c r="H65" s="437"/>
-      <c r="I65" s="437" t="s">
+      <c r="H65" s="505"/>
+      <c r="I65" s="505" t="s">
         <v>431</v>
       </c>
-      <c r="J65" s="437"/>
-      <c r="K65" s="437" t="s">
+      <c r="J65" s="505"/>
+      <c r="K65" s="505" t="s">
         <v>432</v>
       </c>
-      <c r="L65" s="437"/>
+      <c r="L65" s="505"/>
       <c r="N65" s="101"/>
       <c r="O65" s="101"/>
       <c r="R65" s="127"/>
       <c r="S65" s="128"/>
     </row>
     <row r="66" spans="2:34" ht="18" customHeight="1">
-      <c r="B66" s="436" t="s">
+      <c r="B66" s="518" t="s">
         <v>286</v>
       </c>
-      <c r="C66" s="436"/>
-      <c r="D66" s="436"/>
-      <c r="E66" s="437" t="s">
+      <c r="C66" s="518"/>
+      <c r="D66" s="518"/>
+      <c r="E66" s="505" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="437"/>
-      <c r="G66" s="437" t="s">
+      <c r="F66" s="505"/>
+      <c r="G66" s="505" t="s">
         <v>287</v>
       </c>
-      <c r="H66" s="437"/>
-      <c r="I66" s="437" t="s">
+      <c r="H66" s="505"/>
+      <c r="I66" s="505" t="s">
         <v>287</v>
       </c>
-      <c r="J66" s="437"/>
-      <c r="K66" s="437" t="s">
+      <c r="J66" s="505"/>
+      <c r="K66" s="505" t="s">
         <v>287</v>
       </c>
-      <c r="L66" s="437"/>
+      <c r="L66" s="505"/>
       <c r="N66" s="101"/>
       <c r="O66" s="101"/>
     </row>
     <row r="67" spans="2:34" ht="36" customHeight="1">
-      <c r="B67" s="533" t="s">
+      <c r="B67" s="499" t="s">
         <v>288</v>
       </c>
-      <c r="C67" s="534"/>
-      <c r="D67" s="535"/>
-      <c r="E67" s="437" t="s">
+      <c r="C67" s="500"/>
+      <c r="D67" s="501"/>
+      <c r="E67" s="505" t="s">
         <v>289</v>
       </c>
-      <c r="F67" s="437"/>
-      <c r="G67" s="437" t="s">
+      <c r="F67" s="505"/>
+      <c r="G67" s="505" t="s">
         <v>290</v>
       </c>
-      <c r="H67" s="437"/>
-      <c r="I67" s="437" t="s">
+      <c r="H67" s="505"/>
+      <c r="I67" s="505" t="s">
         <v>290</v>
       </c>
-      <c r="J67" s="437"/>
-      <c r="K67" s="437" t="s">
+      <c r="J67" s="505"/>
+      <c r="K67" s="505" t="s">
         <v>291</v>
       </c>
-      <c r="L67" s="437"/>
+      <c r="L67" s="505"/>
       <c r="N67" s="101"/>
       <c r="O67" s="101"/>
     </row>
     <row r="68" spans="2:34" ht="0.75" customHeight="1">
-      <c r="B68" s="536"/>
-      <c r="C68" s="537"/>
-      <c r="D68" s="538"/>
-      <c r="E68" s="437"/>
-      <c r="F68" s="437"/>
-      <c r="G68" s="437"/>
-      <c r="H68" s="437"/>
-      <c r="I68" s="437"/>
-      <c r="J68" s="437"/>
-      <c r="K68" s="437"/>
-      <c r="L68" s="437"/>
+      <c r="B68" s="502"/>
+      <c r="C68" s="503"/>
+      <c r="D68" s="504"/>
+      <c r="E68" s="505"/>
+      <c r="F68" s="505"/>
+      <c r="G68" s="505"/>
+      <c r="H68" s="505"/>
+      <c r="I68" s="505"/>
+      <c r="J68" s="505"/>
+      <c r="K68" s="505"/>
+      <c r="L68" s="505"/>
       <c r="N68" s="101"/>
       <c r="O68" s="101"/>
     </row>
     <row r="69" spans="2:34" ht="18" customHeight="1">
-      <c r="B69" s="539" t="s">
+      <c r="B69" s="506" t="s">
         <v>292</v>
       </c>
-      <c r="C69" s="540"/>
-      <c r="D69" s="541"/>
-      <c r="E69" s="456"/>
-      <c r="F69" s="542"/>
-      <c r="G69" s="542"/>
-      <c r="H69" s="542"/>
-      <c r="I69" s="542"/>
-      <c r="J69" s="542"/>
-      <c r="K69" s="542"/>
-      <c r="L69" s="457"/>
+      <c r="C69" s="507"/>
+      <c r="D69" s="508"/>
+      <c r="E69" s="509"/>
+      <c r="F69" s="510"/>
+      <c r="G69" s="510"/>
+      <c r="H69" s="510"/>
+      <c r="I69" s="510"/>
+      <c r="J69" s="510"/>
+      <c r="K69" s="510"/>
+      <c r="L69" s="511"/>
       <c r="N69" s="101"/>
       <c r="O69" s="101"/>
     </row>
     <row r="70" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B70" s="530" t="s">
+      <c r="B70" s="519" t="s">
         <v>293</v>
       </c>
-      <c r="C70" s="531"/>
-      <c r="D70" s="532"/>
-      <c r="E70" s="523" t="s">
+      <c r="C70" s="520"/>
+      <c r="D70" s="521"/>
+      <c r="E70" s="522" t="s">
         <v>294</v>
       </c>
-      <c r="F70" s="524"/>
-      <c r="G70" s="523" t="s">
+      <c r="F70" s="523"/>
+      <c r="G70" s="522" t="s">
         <v>295</v>
       </c>
-      <c r="H70" s="524"/>
-      <c r="I70" s="455" t="s">
+      <c r="H70" s="523"/>
+      <c r="I70" s="524" t="s">
         <v>294</v>
       </c>
-      <c r="J70" s="455"/>
-      <c r="K70" s="437" t="s">
+      <c r="J70" s="524"/>
+      <c r="K70" s="505" t="s">
         <v>294</v>
       </c>
-      <c r="L70" s="437"/>
+      <c r="L70" s="505"/>
       <c r="N70" s="101"/>
       <c r="O70" s="101"/>
       <c r="AF70" s="129" t="s">
@@ -20981,27 +20975,27 @@
       <c r="AH70" s="129"/>
     </row>
     <row r="71" spans="2:34" ht="16.5" customHeight="1">
-      <c r="B71" s="520" t="s">
+      <c r="B71" s="525" t="s">
         <v>298</v>
       </c>
-      <c r="C71" s="521"/>
-      <c r="D71" s="522"/>
-      <c r="E71" s="523" t="s">
+      <c r="C71" s="526"/>
+      <c r="D71" s="527"/>
+      <c r="E71" s="522" t="s">
         <v>299</v>
       </c>
-      <c r="F71" s="524"/>
-      <c r="G71" s="523" t="s">
+      <c r="F71" s="523"/>
+      <c r="G71" s="522" t="s">
         <v>300</v>
       </c>
-      <c r="H71" s="524"/>
-      <c r="I71" s="455" t="s">
+      <c r="H71" s="523"/>
+      <c r="I71" s="524" t="s">
         <v>299</v>
       </c>
-      <c r="J71" s="455"/>
-      <c r="K71" s="437" t="s">
+      <c r="J71" s="524"/>
+      <c r="K71" s="505" t="s">
         <v>300</v>
       </c>
-      <c r="L71" s="437"/>
+      <c r="L71" s="505"/>
       <c r="N71" s="101"/>
       <c r="O71" s="101"/>
       <c r="AF71" s="130" t="e">
@@ -21017,27 +21011,27 @@
       </c>
     </row>
     <row r="72" spans="2:34" ht="18" customHeight="1">
-      <c r="B72" s="520" t="s">
+      <c r="B72" s="525" t="s">
         <v>301</v>
       </c>
-      <c r="C72" s="521"/>
-      <c r="D72" s="522"/>
-      <c r="E72" s="523" t="s">
+      <c r="C72" s="526"/>
+      <c r="D72" s="527"/>
+      <c r="E72" s="522" t="s">
         <v>302</v>
       </c>
-      <c r="F72" s="524"/>
-      <c r="G72" s="523" t="s">
+      <c r="F72" s="523"/>
+      <c r="G72" s="522" t="s">
         <v>303</v>
       </c>
-      <c r="H72" s="524"/>
-      <c r="I72" s="455" t="s">
+      <c r="H72" s="523"/>
+      <c r="I72" s="524" t="s">
         <v>302</v>
       </c>
-      <c r="J72" s="455"/>
-      <c r="K72" s="437" t="s">
+      <c r="J72" s="524"/>
+      <c r="K72" s="505" t="s">
         <v>302</v>
       </c>
-      <c r="L72" s="437"/>
+      <c r="L72" s="505"/>
       <c r="N72" s="101"/>
       <c r="O72" s="101"/>
       <c r="AF72" s="102"/>
@@ -21045,27 +21039,27 @@
       <c r="AH72" s="102"/>
     </row>
     <row r="73" spans="2:34" ht="18" customHeight="1">
-      <c r="B73" s="525" t="s">
+      <c r="B73" s="528" t="s">
         <v>304</v>
       </c>
-      <c r="C73" s="526"/>
-      <c r="D73" s="527"/>
-      <c r="E73" s="523" t="s">
+      <c r="C73" s="529"/>
+      <c r="D73" s="530"/>
+      <c r="E73" s="522" t="s">
         <v>305</v>
       </c>
-      <c r="F73" s="524"/>
-      <c r="G73" s="523" t="s">
+      <c r="F73" s="523"/>
+      <c r="G73" s="522" t="s">
         <v>306</v>
       </c>
-      <c r="H73" s="524"/>
-      <c r="I73" s="528" t="s">
+      <c r="H73" s="523"/>
+      <c r="I73" s="531" t="s">
         <v>307</v>
       </c>
-      <c r="J73" s="529"/>
-      <c r="K73" s="437" t="s">
+      <c r="J73" s="532"/>
+      <c r="K73" s="505" t="s">
         <v>306</v>
       </c>
-      <c r="L73" s="437"/>
+      <c r="L73" s="505"/>
       <c r="N73" s="101"/>
       <c r="O73" s="101"/>
       <c r="AF73" s="102"/>
@@ -21073,45 +21067,45 @@
       <c r="AH73" s="102"/>
     </row>
     <row r="74" spans="2:34" ht="18.75" customHeight="1">
-      <c r="B74" s="517" t="s">
+      <c r="B74" s="542" t="s">
         <v>308</v>
       </c>
-      <c r="C74" s="518"/>
-      <c r="D74" s="518"/>
-      <c r="E74" s="518"/>
-      <c r="F74" s="518"/>
-      <c r="G74" s="518"/>
-      <c r="H74" s="518"/>
-      <c r="I74" s="518"/>
-      <c r="J74" s="518"/>
-      <c r="K74" s="518"/>
-      <c r="L74" s="519"/>
+      <c r="C74" s="543"/>
+      <c r="D74" s="543"/>
+      <c r="E74" s="543"/>
+      <c r="F74" s="543"/>
+      <c r="G74" s="543"/>
+      <c r="H74" s="543"/>
+      <c r="I74" s="543"/>
+      <c r="J74" s="543"/>
+      <c r="K74" s="543"/>
+      <c r="L74" s="544"/>
       <c r="AF74" s="131"/>
       <c r="AG74" s="102"/>
       <c r="AH74" s="102"/>
     </row>
     <row r="75" spans="2:34" ht="15" customHeight="1">
-      <c r="B75" s="491" t="s">
+      <c r="B75" s="545" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="492"/>
-      <c r="D75" s="493"/>
-      <c r="E75" s="494" t="s">
+      <c r="C75" s="546"/>
+      <c r="D75" s="547"/>
+      <c r="E75" s="548" t="s">
         <v>310</v>
       </c>
-      <c r="F75" s="495"/>
-      <c r="G75" s="494" t="s">
+      <c r="F75" s="549"/>
+      <c r="G75" s="548" t="s">
         <v>311</v>
       </c>
-      <c r="H75" s="495"/>
-      <c r="I75" s="497" t="s">
+      <c r="H75" s="549"/>
+      <c r="I75" s="533" t="s">
         <v>306</v>
       </c>
-      <c r="J75" s="498"/>
-      <c r="K75" s="497" t="s">
+      <c r="J75" s="534"/>
+      <c r="K75" s="533" t="s">
         <v>306</v>
       </c>
-      <c r="L75" s="498"/>
+      <c r="L75" s="534"/>
       <c r="AF75" s="132" t="e">
         <f>+#REF!-#REF!</f>
         <v>#REF!</v>
@@ -21120,136 +21114,136 @@
       <c r="AH75" s="102"/>
     </row>
     <row r="76" spans="2:34" ht="15" customHeight="1">
-      <c r="B76" s="507" t="s">
+      <c r="B76" s="539" t="s">
         <v>312</v>
       </c>
-      <c r="C76" s="508"/>
-      <c r="D76" s="509"/>
-      <c r="E76" s="494" t="s">
+      <c r="C76" s="540"/>
+      <c r="D76" s="541"/>
+      <c r="E76" s="548" t="s">
         <v>313</v>
       </c>
-      <c r="F76" s="495"/>
-      <c r="G76" s="494" t="s">
+      <c r="F76" s="549"/>
+      <c r="G76" s="548" t="s">
         <v>314</v>
       </c>
-      <c r="H76" s="495"/>
-      <c r="I76" s="515"/>
-      <c r="J76" s="516"/>
-      <c r="K76" s="515"/>
-      <c r="L76" s="516"/>
+      <c r="H76" s="549"/>
+      <c r="I76" s="537"/>
+      <c r="J76" s="538"/>
+      <c r="K76" s="537"/>
+      <c r="L76" s="538"/>
     </row>
     <row r="77" spans="2:34" ht="24" customHeight="1">
-      <c r="B77" s="507" t="s">
+      <c r="B77" s="539" t="s">
         <v>315</v>
       </c>
-      <c r="C77" s="508"/>
-      <c r="D77" s="509"/>
-      <c r="E77" s="497" t="s">
+      <c r="C77" s="540"/>
+      <c r="D77" s="541"/>
+      <c r="E77" s="533" t="s">
         <v>316</v>
       </c>
-      <c r="F77" s="498"/>
-      <c r="G77" s="497" t="s">
+      <c r="F77" s="534"/>
+      <c r="G77" s="533" t="s">
         <v>316</v>
       </c>
-      <c r="H77" s="498"/>
-      <c r="I77" s="515"/>
-      <c r="J77" s="516"/>
-      <c r="K77" s="515"/>
-      <c r="L77" s="516"/>
+      <c r="H77" s="534"/>
+      <c r="I77" s="537"/>
+      <c r="J77" s="538"/>
+      <c r="K77" s="537"/>
+      <c r="L77" s="538"/>
     </row>
     <row r="78" spans="2:34" ht="24.75" customHeight="1">
-      <c r="B78" s="507" t="s">
+      <c r="B78" s="539" t="s">
         <v>317</v>
       </c>
-      <c r="C78" s="508"/>
-      <c r="D78" s="509"/>
-      <c r="E78" s="513"/>
-      <c r="F78" s="514"/>
-      <c r="G78" s="515"/>
-      <c r="H78" s="516"/>
-      <c r="I78" s="515"/>
-      <c r="J78" s="516"/>
-      <c r="K78" s="515"/>
-      <c r="L78" s="516"/>
+      <c r="C78" s="540"/>
+      <c r="D78" s="541"/>
+      <c r="E78" s="535"/>
+      <c r="F78" s="536"/>
+      <c r="G78" s="537"/>
+      <c r="H78" s="538"/>
+      <c r="I78" s="537"/>
+      <c r="J78" s="538"/>
+      <c r="K78" s="537"/>
+      <c r="L78" s="538"/>
     </row>
     <row r="79" spans="2:34" ht="36" customHeight="1">
-      <c r="B79" s="507" t="s">
+      <c r="B79" s="539" t="s">
         <v>318</v>
       </c>
-      <c r="C79" s="508"/>
-      <c r="D79" s="509"/>
-      <c r="E79" s="497" t="s">
+      <c r="C79" s="540"/>
+      <c r="D79" s="541"/>
+      <c r="E79" s="533" t="s">
         <v>306</v>
       </c>
-      <c r="F79" s="498"/>
-      <c r="G79" s="515"/>
-      <c r="H79" s="516"/>
-      <c r="I79" s="515"/>
-      <c r="J79" s="516"/>
-      <c r="K79" s="515"/>
-      <c r="L79" s="516"/>
+      <c r="F79" s="534"/>
+      <c r="G79" s="537"/>
+      <c r="H79" s="538"/>
+      <c r="I79" s="537"/>
+      <c r="J79" s="538"/>
+      <c r="K79" s="537"/>
+      <c r="L79" s="538"/>
     </row>
     <row r="80" spans="2:34" ht="26.25" customHeight="1">
-      <c r="B80" s="507" t="s">
+      <c r="B80" s="539" t="s">
         <v>319</v>
       </c>
-      <c r="C80" s="508"/>
-      <c r="D80" s="509"/>
-      <c r="E80" s="513"/>
-      <c r="F80" s="514"/>
-      <c r="G80" s="513"/>
-      <c r="H80" s="514"/>
-      <c r="I80" s="513"/>
-      <c r="J80" s="514"/>
-      <c r="K80" s="513"/>
-      <c r="L80" s="514"/>
+      <c r="C80" s="540"/>
+      <c r="D80" s="541"/>
+      <c r="E80" s="535"/>
+      <c r="F80" s="536"/>
+      <c r="G80" s="535"/>
+      <c r="H80" s="536"/>
+      <c r="I80" s="535"/>
+      <c r="J80" s="536"/>
+      <c r="K80" s="535"/>
+      <c r="L80" s="536"/>
     </row>
     <row r="81" spans="1:40" ht="29.25" customHeight="1">
-      <c r="B81" s="507" t="s">
+      <c r="B81" s="539" t="s">
         <v>320</v>
       </c>
-      <c r="C81" s="508"/>
-      <c r="D81" s="509"/>
-      <c r="E81" s="494" t="s">
+      <c r="C81" s="540"/>
+      <c r="D81" s="541"/>
+      <c r="E81" s="548" t="s">
         <v>310</v>
       </c>
-      <c r="F81" s="495"/>
-      <c r="G81" s="494" t="s">
+      <c r="F81" s="549"/>
+      <c r="G81" s="548" t="s">
         <v>311</v>
       </c>
-      <c r="H81" s="495"/>
-      <c r="I81" s="496" t="s">
+      <c r="H81" s="549"/>
+      <c r="I81" s="550" t="s">
         <v>310</v>
       </c>
-      <c r="J81" s="496"/>
-      <c r="K81" s="496" t="s">
+      <c r="J81" s="550"/>
+      <c r="K81" s="550" t="s">
         <v>321</v>
       </c>
-      <c r="L81" s="496"/>
+      <c r="L81" s="550"/>
     </row>
     <row r="82" spans="1:40" s="102" customFormat="1" ht="27.75" customHeight="1">
       <c r="A82" s="100"/>
-      <c r="B82" s="510" t="s">
+      <c r="B82" s="551" t="s">
         <v>322</v>
       </c>
-      <c r="C82" s="511"/>
-      <c r="D82" s="512"/>
-      <c r="E82" s="494" t="s">
+      <c r="C82" s="552"/>
+      <c r="D82" s="553"/>
+      <c r="E82" s="548" t="s">
         <v>314</v>
       </c>
-      <c r="F82" s="495"/>
-      <c r="G82" s="494" t="s">
+      <c r="F82" s="549"/>
+      <c r="G82" s="548" t="s">
         <v>314</v>
       </c>
-      <c r="H82" s="495"/>
-      <c r="I82" s="496" t="s">
+      <c r="H82" s="549"/>
+      <c r="I82" s="550" t="s">
         <v>323</v>
       </c>
-      <c r="J82" s="496"/>
-      <c r="K82" s="496" t="s">
+      <c r="J82" s="550"/>
+      <c r="K82" s="550" t="s">
         <v>314</v>
       </c>
-      <c r="L82" s="496"/>
+      <c r="L82" s="550"/>
       <c r="M82" s="101"/>
       <c r="P82" s="101"/>
       <c r="Q82" s="101"/>
@@ -21279,27 +21273,27 @@
     </row>
     <row r="83" spans="1:40" s="102" customFormat="1" ht="22.5" customHeight="1">
       <c r="A83" s="100"/>
-      <c r="B83" s="507" t="s">
+      <c r="B83" s="539" t="s">
         <v>324</v>
       </c>
-      <c r="C83" s="508"/>
-      <c r="D83" s="509"/>
-      <c r="E83" s="494" t="s">
+      <c r="C83" s="540"/>
+      <c r="D83" s="541"/>
+      <c r="E83" s="548" t="s">
         <v>325</v>
       </c>
-      <c r="F83" s="495"/>
-      <c r="G83" s="494" t="s">
+      <c r="F83" s="549"/>
+      <c r="G83" s="548" t="s">
         <v>325</v>
       </c>
-      <c r="H83" s="495"/>
-      <c r="I83" s="494" t="s">
+      <c r="H83" s="549"/>
+      <c r="I83" s="548" t="s">
         <v>326</v>
       </c>
-      <c r="J83" s="495"/>
-      <c r="K83" s="496" t="s">
+      <c r="J83" s="549"/>
+      <c r="K83" s="550" t="s">
         <v>325</v>
       </c>
-      <c r="L83" s="496"/>
+      <c r="L83" s="550"/>
       <c r="M83" s="101"/>
       <c r="P83" s="101"/>
       <c r="Q83" s="101"/>
@@ -21329,28 +21323,28 @@
     </row>
     <row r="84" spans="1:40" s="102" customFormat="1" ht="30" customHeight="1">
       <c r="A84" s="100"/>
-      <c r="B84" s="491" t="s">
+      <c r="B84" s="545" t="s">
         <v>327</v>
       </c>
-      <c r="C84" s="492"/>
-      <c r="D84" s="493"/>
-      <c r="E84" s="494" t="s">
+      <c r="C84" s="546"/>
+      <c r="D84" s="547"/>
+      <c r="E84" s="548" t="s">
         <v>310</v>
       </c>
-      <c r="F84" s="495"/>
-      <c r="G84" s="494" t="s">
+      <c r="F84" s="549"/>
+      <c r="G84" s="548" t="s">
         <v>311</v>
       </c>
-      <c r="H84" s="495"/>
-      <c r="I84" s="496" t="str">
+      <c r="H84" s="549"/>
+      <c r="I84" s="550" t="str">
         <f>I81</f>
         <v>Valor Pactado</v>
       </c>
-      <c r="J84" s="496"/>
-      <c r="K84" s="496" t="s">
+      <c r="J84" s="550"/>
+      <c r="K84" s="550" t="s">
         <v>321</v>
       </c>
-      <c r="L84" s="496"/>
+      <c r="L84" s="550"/>
       <c r="M84" s="101"/>
       <c r="P84" s="101"/>
       <c r="Q84" s="101"/>
@@ -21380,27 +21374,27 @@
     </row>
     <row r="85" spans="1:40" s="102" customFormat="1" ht="30" customHeight="1">
       <c r="A85" s="100"/>
-      <c r="B85" s="491" t="s">
+      <c r="B85" s="545" t="s">
         <v>328</v>
       </c>
-      <c r="C85" s="492"/>
-      <c r="D85" s="493"/>
-      <c r="E85" s="494" t="s">
+      <c r="C85" s="546"/>
+      <c r="D85" s="547"/>
+      <c r="E85" s="548" t="s">
         <v>329</v>
       </c>
-      <c r="F85" s="495"/>
-      <c r="G85" s="494" t="s">
+      <c r="F85" s="549"/>
+      <c r="G85" s="548" t="s">
         <v>329</v>
       </c>
-      <c r="H85" s="495"/>
-      <c r="I85" s="496" t="s">
+      <c r="H85" s="549"/>
+      <c r="I85" s="550" t="s">
         <v>329</v>
       </c>
-      <c r="J85" s="496"/>
-      <c r="K85" s="496" t="s">
+      <c r="J85" s="550"/>
+      <c r="K85" s="550" t="s">
         <v>329</v>
       </c>
-      <c r="L85" s="496"/>
+      <c r="L85" s="550"/>
       <c r="M85" s="101"/>
       <c r="P85" s="101"/>
       <c r="Q85" s="101"/>
@@ -21430,27 +21424,27 @@
     </row>
     <row r="86" spans="1:40" s="102" customFormat="1" ht="35.25" customHeight="1">
       <c r="A86" s="100"/>
-      <c r="B86" s="501" t="s">
+      <c r="B86" s="556" t="s">
         <v>330</v>
       </c>
-      <c r="C86" s="502"/>
-      <c r="D86" s="503"/>
-      <c r="E86" s="496" t="s">
+      <c r="C86" s="557"/>
+      <c r="D86" s="558"/>
+      <c r="E86" s="550" t="s">
         <v>455</v>
       </c>
-      <c r="F86" s="496"/>
-      <c r="G86" s="497" t="s">
+      <c r="F86" s="550"/>
+      <c r="G86" s="533" t="s">
         <v>331</v>
       </c>
-      <c r="H86" s="498"/>
-      <c r="I86" s="496" t="s">
+      <c r="H86" s="534"/>
+      <c r="I86" s="550" t="s">
         <v>455</v>
       </c>
-      <c r="J86" s="496"/>
-      <c r="K86" s="496" t="s">
+      <c r="J86" s="550"/>
+      <c r="K86" s="550" t="s">
         <v>331</v>
       </c>
-      <c r="L86" s="496"/>
+      <c r="L86" s="550"/>
       <c r="M86" s="101"/>
       <c r="P86" s="101"/>
       <c r="Q86" s="101"/>
@@ -21480,23 +21474,23 @@
     </row>
     <row r="87" spans="1:40" s="102" customFormat="1" ht="30" customHeight="1">
       <c r="A87" s="100"/>
-      <c r="B87" s="504"/>
-      <c r="C87" s="505"/>
-      <c r="D87" s="506"/>
-      <c r="E87" s="496" t="s">
+      <c r="B87" s="559"/>
+      <c r="C87" s="560"/>
+      <c r="D87" s="561"/>
+      <c r="E87" s="550" t="s">
         <v>332</v>
       </c>
-      <c r="F87" s="496"/>
-      <c r="G87" s="499"/>
-      <c r="H87" s="500"/>
-      <c r="I87" s="496" t="s">
+      <c r="F87" s="550"/>
+      <c r="G87" s="554"/>
+      <c r="H87" s="555"/>
+      <c r="I87" s="550" t="s">
         <v>332</v>
       </c>
-      <c r="J87" s="496"/>
-      <c r="K87" s="496" t="s">
+      <c r="J87" s="550"/>
+      <c r="K87" s="550" t="s">
         <v>333</v>
       </c>
-      <c r="L87" s="496"/>
+      <c r="L87" s="550"/>
       <c r="M87" s="101"/>
       <c r="P87" s="101"/>
       <c r="Q87" s="101"/>
@@ -21526,19 +21520,19 @@
     </row>
     <row r="88" spans="1:40" s="102" customFormat="1" ht="21.75" customHeight="1">
       <c r="A88" s="100"/>
-      <c r="B88" s="488" t="s">
+      <c r="B88" s="562" t="s">
         <v>334</v>
       </c>
-      <c r="C88" s="489"/>
-      <c r="D88" s="489"/>
-      <c r="E88" s="489"/>
-      <c r="F88" s="489"/>
-      <c r="G88" s="489"/>
-      <c r="H88" s="489"/>
-      <c r="I88" s="489"/>
-      <c r="J88" s="489"/>
-      <c r="K88" s="489"/>
-      <c r="L88" s="490"/>
+      <c r="C88" s="563"/>
+      <c r="D88" s="563"/>
+      <c r="E88" s="563"/>
+      <c r="F88" s="563"/>
+      <c r="G88" s="563"/>
+      <c r="H88" s="563"/>
+      <c r="I88" s="563"/>
+      <c r="J88" s="563"/>
+      <c r="K88" s="563"/>
+      <c r="L88" s="564"/>
       <c r="M88" s="101"/>
       <c r="P88" s="101"/>
       <c r="Q88" s="101"/>
@@ -21568,27 +21562,27 @@
     </row>
     <row r="89" spans="1:40" s="102" customFormat="1" ht="33" customHeight="1">
       <c r="A89" s="100"/>
-      <c r="B89" s="487" t="s">
+      <c r="B89" s="565" t="s">
         <v>335</v>
       </c>
-      <c r="C89" s="487"/>
-      <c r="D89" s="487"/>
-      <c r="E89" s="437" t="s">
+      <c r="C89" s="565"/>
+      <c r="D89" s="565"/>
+      <c r="E89" s="505" t="s">
         <v>336</v>
       </c>
-      <c r="F89" s="437"/>
-      <c r="G89" s="437" t="s">
+      <c r="F89" s="505"/>
+      <c r="G89" s="505" t="s">
         <v>337</v>
       </c>
-      <c r="H89" s="437"/>
-      <c r="I89" s="437" t="s">
+      <c r="H89" s="505"/>
+      <c r="I89" s="505" t="s">
         <v>337</v>
       </c>
-      <c r="J89" s="437"/>
-      <c r="K89" s="437" t="s">
+      <c r="J89" s="505"/>
+      <c r="K89" s="505" t="s">
         <v>337</v>
       </c>
-      <c r="L89" s="437"/>
+      <c r="L89" s="505"/>
       <c r="M89" s="101"/>
       <c r="P89" s="101"/>
       <c r="Q89" s="101"/>
@@ -21618,27 +21612,27 @@
     </row>
     <row r="90" spans="1:40" s="102" customFormat="1" ht="36.75" customHeight="1">
       <c r="A90" s="100"/>
-      <c r="B90" s="487" t="s">
+      <c r="B90" s="565" t="s">
         <v>338</v>
       </c>
-      <c r="C90" s="487"/>
-      <c r="D90" s="487"/>
-      <c r="E90" s="437" t="s">
+      <c r="C90" s="565"/>
+      <c r="D90" s="565"/>
+      <c r="E90" s="505" t="s">
         <v>339</v>
       </c>
-      <c r="F90" s="437"/>
-      <c r="G90" s="437" t="s">
+      <c r="F90" s="505"/>
+      <c r="G90" s="505" t="s">
         <v>339</v>
       </c>
-      <c r="H90" s="437"/>
-      <c r="I90" s="437" t="s">
+      <c r="H90" s="505"/>
+      <c r="I90" s="505" t="s">
         <v>682</v>
       </c>
-      <c r="J90" s="437"/>
-      <c r="K90" s="437" t="s">
+      <c r="J90" s="505"/>
+      <c r="K90" s="505" t="s">
         <v>340</v>
       </c>
-      <c r="L90" s="437"/>
+      <c r="L90" s="505"/>
       <c r="M90" s="101"/>
       <c r="P90" s="101"/>
       <c r="Q90" s="101"/>
@@ -21668,27 +21662,27 @@
     </row>
     <row r="91" spans="1:40" s="102" customFormat="1" ht="19.5" customHeight="1">
       <c r="A91" s="100"/>
-      <c r="B91" s="487" t="s">
+      <c r="B91" s="565" t="s">
         <v>341</v>
       </c>
-      <c r="C91" s="487"/>
-      <c r="D91" s="487"/>
-      <c r="E91" s="437" t="s">
+      <c r="C91" s="565"/>
+      <c r="D91" s="565"/>
+      <c r="E91" s="505" t="s">
         <v>342</v>
       </c>
-      <c r="F91" s="437"/>
-      <c r="G91" s="437" t="s">
+      <c r="F91" s="505"/>
+      <c r="G91" s="505" t="s">
         <v>342</v>
       </c>
-      <c r="H91" s="437"/>
-      <c r="I91" s="486" t="s">
+      <c r="H91" s="505"/>
+      <c r="I91" s="566" t="s">
         <v>343</v>
       </c>
-      <c r="J91" s="486"/>
-      <c r="K91" s="437" t="s">
+      <c r="J91" s="566"/>
+      <c r="K91" s="505" t="s">
         <v>342</v>
       </c>
-      <c r="L91" s="437"/>
+      <c r="L91" s="505"/>
       <c r="M91" s="101"/>
       <c r="P91" s="101"/>
       <c r="Q91" s="101"/>
@@ -21718,27 +21712,27 @@
     </row>
     <row r="92" spans="1:40" s="102" customFormat="1" ht="63" customHeight="1">
       <c r="A92" s="100"/>
-      <c r="B92" s="485" t="s">
+      <c r="B92" s="567" t="s">
         <v>344</v>
       </c>
-      <c r="C92" s="485"/>
-      <c r="D92" s="485"/>
-      <c r="E92" s="437" t="s">
+      <c r="C92" s="567"/>
+      <c r="D92" s="567"/>
+      <c r="E92" s="505" t="s">
         <v>345</v>
       </c>
-      <c r="F92" s="437"/>
-      <c r="G92" s="437" t="s">
+      <c r="F92" s="505"/>
+      <c r="G92" s="505" t="s">
         <v>345</v>
       </c>
-      <c r="H92" s="437"/>
-      <c r="I92" s="486" t="s">
+      <c r="H92" s="505"/>
+      <c r="I92" s="566" t="s">
         <v>346</v>
       </c>
-      <c r="J92" s="486"/>
-      <c r="K92" s="437" t="s">
+      <c r="J92" s="566"/>
+      <c r="K92" s="505" t="s">
         <v>345</v>
       </c>
-      <c r="L92" s="437"/>
+      <c r="L92" s="505"/>
       <c r="M92" s="101"/>
       <c r="P92" s="101"/>
       <c r="Q92" s="101"/>
@@ -21768,27 +21762,27 @@
     </row>
     <row r="93" spans="1:40" s="102" customFormat="1" ht="28.5" customHeight="1">
       <c r="A93" s="100"/>
-      <c r="B93" s="485" t="s">
+      <c r="B93" s="567" t="s">
         <v>347</v>
       </c>
-      <c r="C93" s="485"/>
-      <c r="D93" s="485"/>
-      <c r="E93" s="437" t="s">
+      <c r="C93" s="567"/>
+      <c r="D93" s="567"/>
+      <c r="E93" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="F93" s="437"/>
-      <c r="G93" s="437" t="s">
+      <c r="F93" s="505"/>
+      <c r="G93" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="H93" s="437"/>
-      <c r="I93" s="486" t="s">
+      <c r="H93" s="505"/>
+      <c r="I93" s="566" t="s">
         <v>349</v>
       </c>
-      <c r="J93" s="486"/>
-      <c r="K93" s="437" t="s">
+      <c r="J93" s="566"/>
+      <c r="K93" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="L93" s="437"/>
+      <c r="L93" s="505"/>
       <c r="M93" s="101"/>
       <c r="P93" s="101"/>
       <c r="Q93" s="101"/>
@@ -21818,27 +21812,27 @@
     </row>
     <row r="94" spans="1:40" s="102" customFormat="1" ht="29.25" customHeight="1">
       <c r="A94" s="100"/>
-      <c r="B94" s="485" t="s">
+      <c r="B94" s="567" t="s">
         <v>350</v>
       </c>
-      <c r="C94" s="485"/>
-      <c r="D94" s="485"/>
-      <c r="E94" s="437" t="s">
+      <c r="C94" s="567"/>
+      <c r="D94" s="567"/>
+      <c r="E94" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="F94" s="437"/>
-      <c r="G94" s="437" t="s">
+      <c r="F94" s="505"/>
+      <c r="G94" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="H94" s="437"/>
-      <c r="I94" s="486" t="s">
+      <c r="H94" s="505"/>
+      <c r="I94" s="566" t="s">
         <v>349</v>
       </c>
-      <c r="J94" s="486"/>
-      <c r="K94" s="437" t="s">
+      <c r="J94" s="566"/>
+      <c r="K94" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="L94" s="437"/>
+      <c r="L94" s="505"/>
       <c r="M94" s="101"/>
       <c r="P94" s="101"/>
       <c r="Q94" s="101"/>
@@ -21868,27 +21862,27 @@
     </row>
     <row r="95" spans="1:40" s="102" customFormat="1" ht="42.75" customHeight="1">
       <c r="A95" s="100"/>
-      <c r="B95" s="485" t="s">
+      <c r="B95" s="567" t="s">
         <v>351</v>
       </c>
-      <c r="C95" s="485"/>
-      <c r="D95" s="485"/>
-      <c r="E95" s="437" t="s">
+      <c r="C95" s="567"/>
+      <c r="D95" s="567"/>
+      <c r="E95" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="F95" s="437"/>
-      <c r="G95" s="437" t="s">
+      <c r="F95" s="505"/>
+      <c r="G95" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="H95" s="437"/>
-      <c r="I95" s="486" t="s">
+      <c r="H95" s="505"/>
+      <c r="I95" s="566" t="s">
         <v>352</v>
       </c>
-      <c r="J95" s="486"/>
-      <c r="K95" s="437" t="s">
+      <c r="J95" s="566"/>
+      <c r="K95" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="L95" s="437"/>
+      <c r="L95" s="505"/>
       <c r="M95" s="101"/>
       <c r="P95" s="101"/>
       <c r="Q95" s="101"/>
@@ -21918,27 +21912,27 @@
     </row>
     <row r="96" spans="1:40" s="102" customFormat="1" ht="29.25" customHeight="1">
       <c r="A96" s="100"/>
-      <c r="B96" s="485" t="s">
+      <c r="B96" s="567" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="485"/>
-      <c r="D96" s="485"/>
-      <c r="E96" s="437" t="s">
+      <c r="C96" s="567"/>
+      <c r="D96" s="567"/>
+      <c r="E96" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="F96" s="437"/>
-      <c r="G96" s="437" t="s">
+      <c r="F96" s="505"/>
+      <c r="G96" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="H96" s="437"/>
-      <c r="I96" s="486" t="s">
+      <c r="H96" s="505"/>
+      <c r="I96" s="566" t="s">
         <v>354</v>
       </c>
-      <c r="J96" s="486"/>
-      <c r="K96" s="437" t="s">
+      <c r="J96" s="566"/>
+      <c r="K96" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="L96" s="437"/>
+      <c r="L96" s="505"/>
       <c r="M96" s="101"/>
       <c r="P96" s="101"/>
       <c r="Q96" s="101"/>
@@ -21968,27 +21962,27 @@
     </row>
     <row r="97" spans="1:40" s="102" customFormat="1" ht="23.25" customHeight="1">
       <c r="A97" s="100"/>
-      <c r="B97" s="483" t="s">
+      <c r="B97" s="568" t="s">
         <v>355</v>
       </c>
-      <c r="C97" s="483"/>
-      <c r="D97" s="483"/>
-      <c r="E97" s="484" t="s">
+      <c r="C97" s="568"/>
+      <c r="D97" s="568"/>
+      <c r="E97" s="450" t="s">
         <v>356</v>
       </c>
-      <c r="F97" s="484"/>
-      <c r="G97" s="484" t="s">
+      <c r="F97" s="450"/>
+      <c r="G97" s="450" t="s">
         <v>357</v>
       </c>
-      <c r="H97" s="484"/>
-      <c r="I97" s="484" t="s">
+      <c r="H97" s="450"/>
+      <c r="I97" s="450" t="s">
         <v>358</v>
       </c>
-      <c r="J97" s="484"/>
-      <c r="K97" s="484" t="s">
+      <c r="J97" s="450"/>
+      <c r="K97" s="450" t="s">
         <v>359</v>
       </c>
-      <c r="L97" s="484"/>
+      <c r="L97" s="450"/>
       <c r="M97" s="101"/>
       <c r="P97" s="101"/>
       <c r="Q97" s="101"/>
@@ -22017,110 +22011,110 @@
       <c r="AN97" s="101"/>
     </row>
     <row r="98" spans="1:40" ht="18" customHeight="1">
-      <c r="B98" s="482" t="s">
+      <c r="B98" s="569" t="s">
         <v>360</v>
       </c>
-      <c r="C98" s="482"/>
-      <c r="D98" s="482"/>
-      <c r="E98" s="437" t="s">
+      <c r="C98" s="569"/>
+      <c r="D98" s="569"/>
+      <c r="E98" s="505" t="s">
         <v>361</v>
       </c>
-      <c r="F98" s="437"/>
-      <c r="G98" s="437" t="s">
+      <c r="F98" s="505"/>
+      <c r="G98" s="505" t="s">
         <v>306</v>
       </c>
-      <c r="H98" s="437"/>
-      <c r="I98" s="437" t="s">
+      <c r="H98" s="505"/>
+      <c r="I98" s="505" t="s">
         <v>361</v>
       </c>
-      <c r="J98" s="437"/>
-      <c r="K98" s="437" t="s">
+      <c r="J98" s="505"/>
+      <c r="K98" s="505" t="s">
         <v>345</v>
       </c>
-      <c r="L98" s="437"/>
+      <c r="L98" s="505"/>
     </row>
     <row r="99" spans="1:40" ht="17.25" customHeight="1">
-      <c r="B99" s="482" t="s">
+      <c r="B99" s="569" t="s">
         <v>362</v>
       </c>
-      <c r="C99" s="482"/>
-      <c r="D99" s="482"/>
-      <c r="E99" s="437" t="s">
+      <c r="C99" s="569"/>
+      <c r="D99" s="569"/>
+      <c r="E99" s="505" t="s">
         <v>363</v>
       </c>
-      <c r="F99" s="437"/>
-      <c r="G99" s="437" t="s">
+      <c r="F99" s="505"/>
+      <c r="G99" s="505" t="s">
         <v>306</v>
       </c>
-      <c r="H99" s="437"/>
-      <c r="I99" s="437" t="s">
+      <c r="H99" s="505"/>
+      <c r="I99" s="505" t="s">
         <v>363</v>
       </c>
-      <c r="J99" s="437"/>
-      <c r="K99" s="437" t="s">
+      <c r="J99" s="505"/>
+      <c r="K99" s="505" t="s">
         <v>302</v>
       </c>
-      <c r="L99" s="437"/>
+      <c r="L99" s="505"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1">
-      <c r="B100" s="482" t="s">
+      <c r="B100" s="569" t="s">
         <v>364</v>
       </c>
-      <c r="C100" s="482"/>
-      <c r="D100" s="482"/>
-      <c r="E100" s="482"/>
-      <c r="F100" s="482"/>
-      <c r="G100" s="482"/>
-      <c r="H100" s="482"/>
-      <c r="I100" s="482"/>
-      <c r="J100" s="482"/>
-      <c r="K100" s="482"/>
-      <c r="L100" s="482"/>
+      <c r="C100" s="569"/>
+      <c r="D100" s="569"/>
+      <c r="E100" s="569"/>
+      <c r="F100" s="569"/>
+      <c r="G100" s="569"/>
+      <c r="H100" s="569"/>
+      <c r="I100" s="569"/>
+      <c r="J100" s="569"/>
+      <c r="K100" s="569"/>
+      <c r="L100" s="569"/>
     </row>
     <row r="101" spans="1:40" ht="16.5" customHeight="1">
-      <c r="B101" s="482" t="s">
+      <c r="B101" s="569" t="s">
         <v>365</v>
       </c>
-      <c r="C101" s="482"/>
-      <c r="D101" s="482"/>
-      <c r="E101" s="482"/>
-      <c r="F101" s="482"/>
-      <c r="G101" s="482"/>
-      <c r="H101" s="482"/>
-      <c r="I101" s="482"/>
-      <c r="J101" s="482"/>
-      <c r="K101" s="482"/>
-      <c r="L101" s="482"/>
+      <c r="C101" s="569"/>
+      <c r="D101" s="569"/>
+      <c r="E101" s="569"/>
+      <c r="F101" s="569"/>
+      <c r="G101" s="569"/>
+      <c r="H101" s="569"/>
+      <c r="I101" s="569"/>
+      <c r="J101" s="569"/>
+      <c r="K101" s="569"/>
+      <c r="L101" s="569"/>
     </row>
     <row r="102" spans="1:40" ht="15.75" customHeight="1">
-      <c r="B102" s="482" t="s">
+      <c r="B102" s="569" t="s">
         <v>366</v>
       </c>
-      <c r="C102" s="482"/>
-      <c r="D102" s="482"/>
-      <c r="E102" s="482"/>
-      <c r="F102" s="482"/>
-      <c r="G102" s="482"/>
-      <c r="H102" s="482"/>
-      <c r="I102" s="482"/>
-      <c r="J102" s="482"/>
-      <c r="K102" s="482"/>
-      <c r="L102" s="482"/>
+      <c r="C102" s="569"/>
+      <c r="D102" s="569"/>
+      <c r="E102" s="569"/>
+      <c r="F102" s="569"/>
+      <c r="G102" s="569"/>
+      <c r="H102" s="569"/>
+      <c r="I102" s="569"/>
+      <c r="J102" s="569"/>
+      <c r="K102" s="569"/>
+      <c r="L102" s="569"/>
     </row>
     <row r="103" spans="1:40" ht="18" customHeight="1">
-      <c r="B103" s="482" t="s">
+      <c r="B103" s="569" t="s">
         <v>367</v>
       </c>
-      <c r="C103" s="482"/>
-      <c r="D103" s="482"/>
-      <c r="E103" s="482"/>
-      <c r="F103" s="482"/>
-      <c r="G103" s="482"/>
-      <c r="H103" s="482"/>
-      <c r="I103" s="482"/>
-      <c r="J103" s="482"/>
-      <c r="K103" s="482"/>
-      <c r="L103" s="482"/>
+      <c r="C103" s="569"/>
+      <c r="D103" s="569"/>
+      <c r="E103" s="569"/>
+      <c r="F103" s="569"/>
+      <c r="G103" s="569"/>
+      <c r="H103" s="569"/>
+      <c r="I103" s="569"/>
+      <c r="J103" s="569"/>
+      <c r="K103" s="569"/>
+      <c r="L103" s="569"/>
     </row>
     <row r="104" spans="1:40" s="100" customFormat="1" ht="9.75" customHeight="1">
       <c r="B104" s="133"/>
@@ -22138,19 +22132,19 @@
       <c r="O104" s="107"/>
     </row>
     <row r="105" spans="1:40" s="100" customFormat="1" ht="72" customHeight="1">
-      <c r="B105" s="473" t="s">
+      <c r="B105" s="570" t="s">
         <v>283</v>
       </c>
-      <c r="C105" s="474"/>
-      <c r="D105" s="474"/>
-      <c r="E105" s="474"/>
-      <c r="F105" s="474"/>
-      <c r="G105" s="474"/>
-      <c r="H105" s="474"/>
-      <c r="I105" s="474"/>
-      <c r="J105" s="474"/>
-      <c r="K105" s="474"/>
-      <c r="L105" s="475"/>
+      <c r="C105" s="571"/>
+      <c r="D105" s="571"/>
+      <c r="E105" s="571"/>
+      <c r="F105" s="571"/>
+      <c r="G105" s="571"/>
+      <c r="H105" s="571"/>
+      <c r="I105" s="571"/>
+      <c r="J105" s="571"/>
+      <c r="K105" s="571"/>
+      <c r="L105" s="572"/>
       <c r="N105" s="107"/>
       <c r="O105" s="107"/>
     </row>
@@ -22245,426 +22239,426 @@
       <c r="O111" s="107"/>
     </row>
     <row r="112" spans="1:40" ht="44.25" customHeight="1">
-      <c r="B112" s="476" t="s">
+      <c r="B112" s="512" t="s">
         <v>368</v>
       </c>
-      <c r="C112" s="476"/>
-      <c r="D112" s="476"/>
+      <c r="C112" s="512"/>
+      <c r="D112" s="512"/>
       <c r="E112" s="126"/>
       <c r="F112" s="126"/>
-      <c r="G112" s="477"/>
-      <c r="H112" s="477"/>
-      <c r="I112" s="478"/>
-      <c r="J112" s="479"/>
-      <c r="K112" s="480"/>
-      <c r="L112" s="481"/>
+      <c r="G112" s="513"/>
+      <c r="H112" s="513"/>
+      <c r="I112" s="514"/>
+      <c r="J112" s="515"/>
+      <c r="K112" s="516"/>
+      <c r="L112" s="517"/>
       <c r="N112" s="101"/>
       <c r="O112" s="101"/>
       <c r="R112" s="127"/>
       <c r="S112" s="128"/>
     </row>
     <row r="113" spans="2:12" ht="96" customHeight="1">
-      <c r="B113" s="466" t="s">
+      <c r="B113" s="573" t="s">
         <v>286</v>
       </c>
-      <c r="C113" s="467"/>
-      <c r="D113" s="468"/>
-      <c r="E113" s="438" t="str">
+      <c r="C113" s="574"/>
+      <c r="D113" s="575"/>
+      <c r="E113" s="576" t="str">
         <f>+E114</f>
         <v xml:space="preserve">Talleres Afiliados
 15.00% mínimo US$ 200.00
 Talleres Afiliados Multimarca
 10.00% mínimo US$ 150.00 </v>
       </c>
-      <c r="F113" s="438"/>
-      <c r="G113" s="456" t="s">
+      <c r="F113" s="576"/>
+      <c r="G113" s="509" t="s">
         <v>369</v>
       </c>
-      <c r="H113" s="457"/>
-      <c r="I113" s="455" t="str">
+      <c r="H113" s="511"/>
+      <c r="I113" s="524" t="str">
         <f>+VLOOKUP(B113&amp;'INGRESO DE INFORMACION'!G18,DEDUCIBLES!H5:K17,4,0)</f>
         <v>Preferente: 10% mínimo US$ 150.00
 Afiliado Concesionario : 15% mínimo US$ 150.00
 No Afiliado: 20% mínimo US$ 300.00</v>
       </c>
-      <c r="J113" s="455"/>
-      <c r="K113" s="458" t="s">
+      <c r="J113" s="524"/>
+      <c r="K113" s="577" t="s">
         <v>370</v>
       </c>
-      <c r="L113" s="458"/>
+      <c r="L113" s="577"/>
     </row>
     <row r="114" spans="2:12" ht="60" customHeight="1">
-      <c r="B114" s="466" t="s">
+      <c r="B114" s="573" t="s">
         <v>371</v>
       </c>
-      <c r="C114" s="467"/>
-      <c r="D114" s="468"/>
-      <c r="E114" s="438" t="str">
+      <c r="C114" s="574"/>
+      <c r="D114" s="575"/>
+      <c r="E114" s="576" t="str">
         <f>+VLOOKUP(B114&amp;'INGRESO DE INFORMACION'!$D$18,DEDUCIBLES!$B$5:$E$13,4,0)</f>
         <v xml:space="preserve">Talleres Afiliados
 15.00% mínimo US$ 200.00
 Talleres Afiliados Multimarca
 10.00% mínimo US$ 150.00 </v>
       </c>
-      <c r="F114" s="438"/>
-      <c r="G114" s="462" t="str">
+      <c r="F114" s="576"/>
+      <c r="G114" s="581" t="str">
         <f>+VLOOKUP(B114&amp;'INGRESO DE INFORMACION'!E22,DEDUCIBLES!B17:E20,4,0)</f>
         <v xml:space="preserve">Talleres Afiliados
 15% mínimo US$ 150.00
 Talleres Afiliados Multimarca
 10% mínimo US$ 150.00 </v>
       </c>
-      <c r="H114" s="463"/>
-      <c r="I114" s="462" t="str">
+      <c r="H114" s="582"/>
+      <c r="I114" s="581" t="str">
         <f>+I113</f>
         <v>Preferente: 10% mínimo US$ 150.00
 Afiliado Concesionario : 15% mínimo US$ 150.00
 No Afiliado: 20% mínimo US$ 300.00</v>
       </c>
-      <c r="J114" s="463"/>
-      <c r="K114" s="458" t="s">
+      <c r="J114" s="582"/>
+      <c r="K114" s="577" t="s">
         <v>453</v>
       </c>
-      <c r="L114" s="458"/>
+      <c r="L114" s="577"/>
     </row>
     <row r="115" spans="2:12" ht="69.75" customHeight="1">
-      <c r="B115" s="446"/>
-      <c r="C115" s="447"/>
-      <c r="D115" s="448"/>
-      <c r="E115" s="469" t="s">
+      <c r="B115" s="578"/>
+      <c r="C115" s="579"/>
+      <c r="D115" s="580"/>
+      <c r="E115" s="590" t="s">
         <v>372</v>
       </c>
-      <c r="F115" s="451"/>
-      <c r="G115" s="464"/>
-      <c r="H115" s="465"/>
-      <c r="I115" s="464"/>
-      <c r="J115" s="465"/>
-      <c r="K115" s="458"/>
-      <c r="L115" s="458"/>
+      <c r="F115" s="586"/>
+      <c r="G115" s="583"/>
+      <c r="H115" s="584"/>
+      <c r="I115" s="583"/>
+      <c r="J115" s="584"/>
+      <c r="K115" s="577"/>
+      <c r="L115" s="577"/>
     </row>
     <row r="116" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B116" s="446" t="s">
+      <c r="B116" s="578" t="s">
         <v>373</v>
       </c>
-      <c r="C116" s="447"/>
-      <c r="D116" s="448"/>
-      <c r="E116" s="438" t="str">
+      <c r="C116" s="579"/>
+      <c r="D116" s="580"/>
+      <c r="E116" s="576" t="str">
         <f>+VLOOKUP(B116&amp;'INGRESO DE INFORMACION'!$D$18,DEDUCIBLES!$B$5:$E$13,4,0)</f>
         <v>20.00% mínimo US$ 200.00</v>
       </c>
-      <c r="F116" s="438"/>
-      <c r="G116" s="450"/>
-      <c r="H116" s="451"/>
-      <c r="I116" s="450"/>
-      <c r="J116" s="451"/>
-      <c r="K116" s="458"/>
-      <c r="L116" s="458"/>
+      <c r="F116" s="576"/>
+      <c r="G116" s="585"/>
+      <c r="H116" s="586"/>
+      <c r="I116" s="585"/>
+      <c r="J116" s="586"/>
+      <c r="K116" s="577"/>
+      <c r="L116" s="577"/>
     </row>
     <row r="117" spans="2:12" ht="85.5" customHeight="1">
-      <c r="B117" s="470" t="s">
+      <c r="B117" s="591" t="s">
         <v>374</v>
       </c>
-      <c r="C117" s="471"/>
-      <c r="D117" s="472"/>
-      <c r="E117" s="455" t="s">
+      <c r="C117" s="592"/>
+      <c r="D117" s="593"/>
+      <c r="E117" s="524" t="s">
         <v>375</v>
       </c>
-      <c r="F117" s="455"/>
-      <c r="G117" s="456" t="s">
+      <c r="F117" s="524"/>
+      <c r="G117" s="509" t="s">
         <v>376</v>
       </c>
-      <c r="H117" s="457"/>
-      <c r="I117" s="462" t="str">
+      <c r="H117" s="511"/>
+      <c r="I117" s="581" t="str">
         <f>VLOOKUP(B117&amp;'INGRESO DE INFORMACION'!G18&amp;H18,DEDUCIBLES!H12:K14,4,0)</f>
         <v>Sin deducible</v>
       </c>
-      <c r="J117" s="463"/>
-      <c r="K117" s="458" t="s">
+      <c r="J117" s="582"/>
+      <c r="K117" s="577" t="s">
         <v>375</v>
       </c>
-      <c r="L117" s="458"/>
+      <c r="L117" s="577"/>
     </row>
     <row r="118" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B118" s="452" t="s">
+      <c r="B118" s="587" t="s">
         <v>377</v>
       </c>
-      <c r="C118" s="453"/>
-      <c r="D118" s="454"/>
-      <c r="E118" s="455" t="s">
+      <c r="C118" s="588"/>
+      <c r="D118" s="589"/>
+      <c r="E118" s="524" t="s">
         <v>378</v>
       </c>
-      <c r="F118" s="455"/>
-      <c r="G118" s="456" t="s">
+      <c r="F118" s="524"/>
+      <c r="G118" s="509" t="s">
         <v>379</v>
       </c>
-      <c r="H118" s="457"/>
-      <c r="I118" s="455" t="s">
+      <c r="H118" s="511"/>
+      <c r="I118" s="524" t="s">
         <v>378</v>
       </c>
-      <c r="J118" s="455"/>
-      <c r="K118" s="458" t="s">
+      <c r="J118" s="524"/>
+      <c r="K118" s="577" t="s">
         <v>378</v>
       </c>
-      <c r="L118" s="458"/>
+      <c r="L118" s="577"/>
     </row>
     <row r="119" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B119" s="452" t="s">
+      <c r="B119" s="587" t="s">
         <v>380</v>
       </c>
-      <c r="C119" s="453"/>
-      <c r="D119" s="454"/>
-      <c r="E119" s="455" t="s">
+      <c r="C119" s="588"/>
+      <c r="D119" s="589"/>
+      <c r="E119" s="524" t="s">
         <v>370</v>
       </c>
-      <c r="F119" s="455"/>
-      <c r="G119" s="456" t="s">
+      <c r="F119" s="524"/>
+      <c r="G119" s="509" t="s">
         <v>370</v>
       </c>
-      <c r="H119" s="457"/>
-      <c r="I119" s="455" t="s">
+      <c r="H119" s="511"/>
+      <c r="I119" s="524" t="s">
         <v>370</v>
       </c>
-      <c r="J119" s="455"/>
-      <c r="K119" s="458" t="s">
+      <c r="J119" s="524"/>
+      <c r="K119" s="577" t="s">
         <v>370</v>
       </c>
-      <c r="L119" s="458"/>
+      <c r="L119" s="577"/>
     </row>
     <row r="120" spans="2:12" ht="62.25" customHeight="1">
-      <c r="B120" s="452" t="s">
+      <c r="B120" s="587" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="453"/>
-      <c r="D120" s="454"/>
-      <c r="E120" s="455" t="s">
+      <c r="C120" s="588"/>
+      <c r="D120" s="589"/>
+      <c r="E120" s="524" t="s">
         <v>382</v>
       </c>
-      <c r="F120" s="455"/>
-      <c r="G120" s="456" t="s">
+      <c r="F120" s="524"/>
+      <c r="G120" s="509" t="s">
         <v>382</v>
       </c>
-      <c r="H120" s="457"/>
-      <c r="I120" s="455" t="s">
+      <c r="H120" s="511"/>
+      <c r="I120" s="524" t="s">
         <v>383</v>
       </c>
-      <c r="J120" s="455"/>
-      <c r="K120" s="458" t="s">
+      <c r="J120" s="524"/>
+      <c r="K120" s="577" t="s">
         <v>383</v>
       </c>
-      <c r="L120" s="458"/>
+      <c r="L120" s="577"/>
     </row>
     <row r="121" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B121" s="452" t="s">
+      <c r="B121" s="587" t="s">
         <v>384</v>
       </c>
-      <c r="C121" s="453"/>
-      <c r="D121" s="454"/>
-      <c r="E121" s="455" t="s">
+      <c r="C121" s="588"/>
+      <c r="D121" s="589"/>
+      <c r="E121" s="524" t="s">
         <v>385</v>
       </c>
-      <c r="F121" s="455"/>
-      <c r="G121" s="456" t="s">
+      <c r="F121" s="524"/>
+      <c r="G121" s="509" t="s">
         <v>385</v>
       </c>
-      <c r="H121" s="457"/>
-      <c r="I121" s="455" t="s">
+      <c r="H121" s="511"/>
+      <c r="I121" s="524" t="s">
         <v>383</v>
       </c>
-      <c r="J121" s="455"/>
-      <c r="K121" s="458" t="s">
+      <c r="J121" s="524"/>
+      <c r="K121" s="577" t="s">
         <v>383</v>
       </c>
-      <c r="L121" s="458"/>
+      <c r="L121" s="577"/>
     </row>
     <row r="122" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B122" s="452" t="s">
+      <c r="B122" s="587" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="453"/>
-      <c r="D122" s="454"/>
-      <c r="E122" s="455" t="s">
+      <c r="C122" s="588"/>
+      <c r="D122" s="589"/>
+      <c r="E122" s="524" t="s">
         <v>387</v>
       </c>
-      <c r="F122" s="455"/>
-      <c r="G122" s="462" t="s">
+      <c r="F122" s="524"/>
+      <c r="G122" s="581" t="s">
         <v>387</v>
       </c>
-      <c r="H122" s="463"/>
-      <c r="I122" s="455" t="s">
+      <c r="H122" s="582"/>
+      <c r="I122" s="524" t="s">
         <v>388</v>
       </c>
-      <c r="J122" s="455"/>
-      <c r="K122" s="458" t="s">
+      <c r="J122" s="524"/>
+      <c r="K122" s="577" t="s">
         <v>389</v>
       </c>
-      <c r="L122" s="458"/>
+      <c r="L122" s="577"/>
     </row>
     <row r="123" spans="2:12" ht="45" customHeight="1">
-      <c r="B123" s="452" t="s">
+      <c r="B123" s="587" t="s">
         <v>390</v>
       </c>
-      <c r="C123" s="453"/>
-      <c r="D123" s="454"/>
-      <c r="E123" s="455"/>
-      <c r="F123" s="455"/>
-      <c r="G123" s="464"/>
-      <c r="H123" s="465"/>
-      <c r="I123" s="455"/>
-      <c r="J123" s="455"/>
-      <c r="K123" s="458"/>
-      <c r="L123" s="458"/>
+      <c r="C123" s="588"/>
+      <c r="D123" s="589"/>
+      <c r="E123" s="524"/>
+      <c r="F123" s="524"/>
+      <c r="G123" s="583"/>
+      <c r="H123" s="584"/>
+      <c r="I123" s="524"/>
+      <c r="J123" s="524"/>
+      <c r="K123" s="577"/>
+      <c r="L123" s="577"/>
     </row>
     <row r="124" spans="2:12" ht="21" customHeight="1">
-      <c r="B124" s="466" t="s">
+      <c r="B124" s="573" t="s">
         <v>391</v>
       </c>
-      <c r="C124" s="467"/>
-      <c r="D124" s="468"/>
-      <c r="E124" s="438"/>
-      <c r="F124" s="438"/>
-      <c r="G124" s="464"/>
-      <c r="H124" s="465"/>
-      <c r="I124" s="438"/>
-      <c r="J124" s="438"/>
-      <c r="K124" s="461"/>
-      <c r="L124" s="461"/>
+      <c r="C124" s="574"/>
+      <c r="D124" s="575"/>
+      <c r="E124" s="576"/>
+      <c r="F124" s="576"/>
+      <c r="G124" s="583"/>
+      <c r="H124" s="584"/>
+      <c r="I124" s="576"/>
+      <c r="J124" s="576"/>
+      <c r="K124" s="596"/>
+      <c r="L124" s="596"/>
     </row>
     <row r="125" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B125" s="459" t="s">
+      <c r="B125" s="594" t="s">
         <v>392</v>
       </c>
-      <c r="C125" s="459"/>
-      <c r="D125" s="459"/>
-      <c r="E125" s="438" t="s">
+      <c r="C125" s="594"/>
+      <c r="D125" s="594"/>
+      <c r="E125" s="576" t="s">
         <v>393</v>
       </c>
-      <c r="F125" s="438"/>
-      <c r="G125" s="438" t="s">
+      <c r="F125" s="576"/>
+      <c r="G125" s="576" t="s">
         <v>394</v>
       </c>
-      <c r="H125" s="438"/>
-      <c r="I125" s="438" t="s">
+      <c r="H125" s="576"/>
+      <c r="I125" s="576" t="s">
         <v>393</v>
       </c>
-      <c r="J125" s="438"/>
-      <c r="K125" s="461" t="s">
+      <c r="J125" s="576"/>
+      <c r="K125" s="596" t="s">
         <v>394</v>
       </c>
-      <c r="L125" s="461"/>
+      <c r="L125" s="596"/>
     </row>
     <row r="126" spans="2:12" ht="63.75" customHeight="1">
-      <c r="B126" s="460"/>
-      <c r="C126" s="460"/>
-      <c r="D126" s="460"/>
-      <c r="E126" s="449" t="s">
+      <c r="B126" s="595"/>
+      <c r="C126" s="595"/>
+      <c r="D126" s="595"/>
+      <c r="E126" s="597" t="s">
         <v>395</v>
       </c>
-      <c r="F126" s="449"/>
-      <c r="G126" s="449" t="s">
+      <c r="F126" s="597"/>
+      <c r="G126" s="597" t="s">
         <v>396</v>
       </c>
-      <c r="H126" s="449"/>
-      <c r="I126" s="462" t="str">
+      <c r="H126" s="597"/>
+      <c r="I126" s="581" t="str">
         <f>+VLOOKUP('INGRESO DE INFORMACION'!G18,DEDUCIBLES!J15:K17,2,0)</f>
         <v>15% del monto del siniestro, mínimo US$ 300.00</v>
       </c>
-      <c r="J126" s="463"/>
-      <c r="K126" s="449" t="s">
+      <c r="J126" s="582"/>
+      <c r="K126" s="597" t="s">
         <v>397</v>
       </c>
-      <c r="L126" s="449"/>
+      <c r="L126" s="597"/>
     </row>
     <row r="127" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B127" s="446" t="s">
+      <c r="B127" s="578" t="s">
         <v>398</v>
       </c>
-      <c r="C127" s="447"/>
-      <c r="D127" s="448"/>
-      <c r="E127" s="449" t="s">
+      <c r="C127" s="579"/>
+      <c r="D127" s="580"/>
+      <c r="E127" s="597" t="s">
         <v>399</v>
       </c>
-      <c r="F127" s="449"/>
-      <c r="G127" s="450" t="s">
+      <c r="F127" s="597"/>
+      <c r="G127" s="585" t="s">
         <v>400</v>
       </c>
-      <c r="H127" s="451"/>
-      <c r="I127" s="449" t="s">
+      <c r="H127" s="586"/>
+      <c r="I127" s="597" t="s">
         <v>401</v>
       </c>
-      <c r="J127" s="449"/>
-      <c r="K127" s="449" t="s">
+      <c r="J127" s="597"/>
+      <c r="K127" s="597" t="s">
         <v>402</v>
       </c>
-      <c r="L127" s="449"/>
+      <c r="L127" s="597"/>
     </row>
     <row r="128" spans="2:12" ht="41.25" customHeight="1">
-      <c r="B128" s="452" t="s">
+      <c r="B128" s="587" t="s">
         <v>403</v>
       </c>
-      <c r="C128" s="453"/>
-      <c r="D128" s="454"/>
-      <c r="E128" s="455" t="s">
+      <c r="C128" s="588"/>
+      <c r="D128" s="589"/>
+      <c r="E128" s="524" t="s">
         <v>376</v>
       </c>
-      <c r="F128" s="455"/>
-      <c r="G128" s="456" t="s">
+      <c r="F128" s="524"/>
+      <c r="G128" s="509" t="s">
         <v>376</v>
       </c>
-      <c r="H128" s="457"/>
-      <c r="I128" s="455" t="s">
+      <c r="H128" s="511"/>
+      <c r="I128" s="524" t="s">
         <v>404</v>
       </c>
-      <c r="J128" s="455"/>
-      <c r="K128" s="458" t="s">
+      <c r="J128" s="524"/>
+      <c r="K128" s="577" t="s">
         <v>405</v>
       </c>
-      <c r="L128" s="458"/>
+      <c r="L128" s="577"/>
     </row>
     <row r="129" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B129" s="452" t="s">
+      <c r="B129" s="587" t="s">
         <v>344</v>
       </c>
-      <c r="C129" s="453"/>
-      <c r="D129" s="454"/>
-      <c r="E129" s="455" t="s">
+      <c r="C129" s="588"/>
+      <c r="D129" s="589"/>
+      <c r="E129" s="524" t="s">
         <v>345</v>
       </c>
-      <c r="F129" s="455"/>
-      <c r="G129" s="456" t="s">
+      <c r="F129" s="524"/>
+      <c r="G129" s="509" t="s">
         <v>345</v>
       </c>
-      <c r="H129" s="457"/>
-      <c r="I129" s="455" t="s">
+      <c r="H129" s="511"/>
+      <c r="I129" s="524" t="s">
         <v>376</v>
       </c>
-      <c r="J129" s="455"/>
-      <c r="K129" s="458" t="s">
+      <c r="J129" s="524"/>
+      <c r="K129" s="577" t="s">
         <v>383</v>
       </c>
-      <c r="L129" s="458"/>
+      <c r="L129" s="577"/>
     </row>
     <row r="130" spans="2:12" ht="23.25" customHeight="1">
-      <c r="B130" s="452" t="s">
+      <c r="B130" s="587" t="s">
         <v>406</v>
       </c>
-      <c r="C130" s="453"/>
-      <c r="D130" s="454"/>
-      <c r="E130" s="455" t="s">
+      <c r="C130" s="588"/>
+      <c r="D130" s="589"/>
+      <c r="E130" s="524" t="s">
         <v>356</v>
       </c>
-      <c r="F130" s="455"/>
-      <c r="G130" s="456" t="s">
+      <c r="F130" s="524"/>
+      <c r="G130" s="509" t="s">
         <v>357</v>
       </c>
-      <c r="H130" s="457"/>
-      <c r="I130" s="455" t="s">
+      <c r="H130" s="511"/>
+      <c r="I130" s="524" t="s">
         <v>358</v>
       </c>
-      <c r="J130" s="455"/>
-      <c r="K130" s="458" t="s">
+      <c r="J130" s="524"/>
+      <c r="K130" s="577" t="s">
         <v>359</v>
       </c>
-      <c r="L130" s="458"/>
+      <c r="L130" s="577"/>
     </row>
     <row r="131" spans="2:12" ht="5.25" customHeight="1">
       <c r="C131" s="134"/>
@@ -22680,25 +22674,25 @@
     </row>
     <row r="132" spans="2:12" ht="3" customHeight="1"/>
     <row r="133" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B133" s="445" t="s">
+      <c r="B133" s="604" t="s">
         <v>407</v>
       </c>
-      <c r="C133" s="445"/>
-      <c r="D133" s="445"/>
-      <c r="E133" s="445"/>
-      <c r="F133" s="445"/>
-      <c r="G133" s="445"/>
-      <c r="H133" s="445"/>
-      <c r="I133" s="445"/>
-      <c r="J133" s="445"/>
-      <c r="K133" s="445"/>
-      <c r="L133" s="445"/>
+      <c r="C133" s="604"/>
+      <c r="D133" s="604"/>
+      <c r="E133" s="604"/>
+      <c r="F133" s="604"/>
+      <c r="G133" s="604"/>
+      <c r="H133" s="604"/>
+      <c r="I133" s="604"/>
+      <c r="J133" s="604"/>
+      <c r="K133" s="604"/>
+      <c r="L133" s="604"/>
     </row>
     <row r="134" spans="2:12" ht="30" customHeight="1">
-      <c r="B134" s="442" t="s">
+      <c r="B134" s="601" t="s">
         <v>408</v>
       </c>
-      <c r="C134" s="442"/>
+      <c r="C134" s="601"/>
       <c r="D134" s="136"/>
       <c r="E134" s="136"/>
       <c r="F134" s="136"/>
@@ -22724,9 +22718,9 @@
     </row>
     <row r="136" spans="2:12" ht="16">
       <c r="C136" s="100"/>
-      <c r="D136" s="443"/>
-      <c r="E136" s="443"/>
-      <c r="F136" s="443"/>
+      <c r="D136" s="602"/>
+      <c r="E136" s="602"/>
+      <c r="F136" s="602"/>
       <c r="G136" s="100"/>
       <c r="H136" s="100"/>
       <c r="I136" s="100"/>
@@ -22735,137 +22729,137 @@
       <c r="L136" s="100"/>
     </row>
     <row r="137" spans="2:12" ht="15" customHeight="1">
-      <c r="B137" s="444" t="s">
+      <c r="B137" s="603" t="s">
         <v>258</v>
       </c>
-      <c r="C137" s="444"/>
-      <c r="D137" s="444" t="s">
+      <c r="C137" s="603"/>
+      <c r="D137" s="603" t="s">
         <v>259</v>
       </c>
-      <c r="E137" s="444"/>
-      <c r="F137" s="444"/>
-      <c r="H137" s="444" t="s">
+      <c r="E137" s="603"/>
+      <c r="F137" s="603"/>
+      <c r="H137" s="603" t="s">
         <v>258</v>
       </c>
-      <c r="I137" s="444"/>
-      <c r="J137" s="444" t="s">
+      <c r="I137" s="603"/>
+      <c r="J137" s="603" t="s">
         <v>259</v>
       </c>
-      <c r="K137" s="444"/>
-      <c r="L137" s="444"/>
+      <c r="K137" s="603"/>
+      <c r="L137" s="603"/>
     </row>
     <row r="138" spans="2:12">
-      <c r="B138" s="439" t="s">
+      <c r="B138" s="598" t="s">
         <v>261</v>
       </c>
-      <c r="C138" s="439"/>
-      <c r="D138" s="439" t="s">
+      <c r="C138" s="598"/>
+      <c r="D138" s="598" t="s">
         <v>262</v>
       </c>
-      <c r="E138" s="439"/>
-      <c r="F138" s="439"/>
-      <c r="H138" s="439" t="s">
+      <c r="E138" s="598"/>
+      <c r="F138" s="598"/>
+      <c r="H138" s="598" t="s">
         <v>261</v>
       </c>
-      <c r="I138" s="439"/>
-      <c r="J138" s="440">
+      <c r="I138" s="598"/>
+      <c r="J138" s="599">
         <v>0.08</v>
       </c>
-      <c r="K138" s="441"/>
-      <c r="L138" s="441"/>
+      <c r="K138" s="600"/>
+      <c r="L138" s="600"/>
     </row>
     <row r="139" spans="2:12">
-      <c r="B139" s="439" t="s">
+      <c r="B139" s="598" t="s">
         <v>265</v>
       </c>
-      <c r="C139" s="439"/>
-      <c r="D139" s="439" t="s">
+      <c r="C139" s="598"/>
+      <c r="D139" s="598" t="s">
         <v>266</v>
       </c>
-      <c r="E139" s="439"/>
-      <c r="F139" s="439"/>
-      <c r="H139" s="439" t="s">
+      <c r="E139" s="598"/>
+      <c r="F139" s="598"/>
+      <c r="H139" s="598" t="s">
         <v>265</v>
       </c>
-      <c r="I139" s="439"/>
-      <c r="J139" s="440">
+      <c r="I139" s="598"/>
+      <c r="J139" s="599">
         <v>0.08</v>
       </c>
-      <c r="K139" s="441"/>
-      <c r="L139" s="441"/>
+      <c r="K139" s="600"/>
+      <c r="L139" s="600"/>
     </row>
     <row r="140" spans="2:12">
-      <c r="B140" s="439" t="s">
+      <c r="B140" s="598" t="s">
         <v>268</v>
       </c>
-      <c r="C140" s="439"/>
-      <c r="D140" s="439" t="s">
+      <c r="C140" s="598"/>
+      <c r="D140" s="598" t="s">
         <v>269</v>
       </c>
-      <c r="E140" s="439"/>
-      <c r="F140" s="439"/>
-      <c r="H140" s="439" t="s">
+      <c r="E140" s="598"/>
+      <c r="F140" s="598"/>
+      <c r="H140" s="598" t="s">
         <v>268</v>
       </c>
-      <c r="I140" s="439"/>
-      <c r="J140" s="440">
+      <c r="I140" s="598"/>
+      <c r="J140" s="599">
         <v>0.05</v>
       </c>
-      <c r="K140" s="441"/>
-      <c r="L140" s="441"/>
+      <c r="K140" s="600"/>
+      <c r="L140" s="600"/>
     </row>
     <row r="141" spans="2:12">
-      <c r="B141" s="439" t="s">
+      <c r="B141" s="598" t="s">
         <v>271</v>
       </c>
-      <c r="C141" s="439"/>
-      <c r="D141" s="439" t="s">
+      <c r="C141" s="598"/>
+      <c r="D141" s="598" t="s">
         <v>272</v>
       </c>
-      <c r="E141" s="439"/>
-      <c r="F141" s="439"/>
-      <c r="H141" s="439" t="s">
+      <c r="E141" s="598"/>
+      <c r="F141" s="598"/>
+      <c r="H141" s="598" t="s">
         <v>409</v>
       </c>
-      <c r="I141" s="439"/>
-      <c r="J141" s="440">
+      <c r="I141" s="598"/>
+      <c r="J141" s="599">
         <v>0.04</v>
       </c>
-      <c r="K141" s="441"/>
-      <c r="L141" s="441"/>
+      <c r="K141" s="600"/>
+      <c r="L141" s="600"/>
     </row>
     <row r="142" spans="2:12" ht="11.25" customHeight="1"/>
     <row r="143" spans="2:12" ht="18" customHeight="1">
-      <c r="B143" s="424" t="s">
+      <c r="B143" s="605" t="s">
         <v>410</v>
       </c>
-      <c r="C143" s="425"/>
-      <c r="D143" s="425"/>
-      <c r="E143" s="425"/>
-      <c r="F143" s="426"/>
-      <c r="H143" s="427" t="s">
+      <c r="C143" s="606"/>
+      <c r="D143" s="606"/>
+      <c r="E143" s="606"/>
+      <c r="F143" s="607"/>
+      <c r="H143" s="608" t="s">
         <v>411</v>
       </c>
-      <c r="I143" s="428"/>
-      <c r="J143" s="428"/>
-      <c r="K143" s="428"/>
-      <c r="L143" s="429"/>
+      <c r="I143" s="609"/>
+      <c r="J143" s="609"/>
+      <c r="K143" s="609"/>
+      <c r="L143" s="610"/>
     </row>
     <row r="144" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B144" s="430" t="s">
+      <c r="B144" s="611" t="s">
         <v>412</v>
       </c>
-      <c r="C144" s="431"/>
-      <c r="D144" s="431"/>
-      <c r="E144" s="431"/>
-      <c r="F144" s="432"/>
-      <c r="H144" s="433" t="s">
+      <c r="C144" s="612"/>
+      <c r="D144" s="612"/>
+      <c r="E144" s="612"/>
+      <c r="F144" s="613"/>
+      <c r="H144" s="614" t="s">
         <v>413</v>
       </c>
-      <c r="I144" s="434"/>
-      <c r="J144" s="434"/>
-      <c r="K144" s="434"/>
-      <c r="L144" s="435"/>
+      <c r="I144" s="615"/>
+      <c r="J144" s="615"/>
+      <c r="K144" s="615"/>
+      <c r="L144" s="616"/>
     </row>
     <row r="145" spans="2:12" ht="16" thickBot="1"/>
     <row r="146" spans="2:12" ht="16" thickTop="1">
@@ -22888,297 +22882,6 @@
     <protectedRange sqref="E12:J13" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="315">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="D51:L51"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:L68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:L69"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H80"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J80"/>
-    <mergeCell ref="K75:L80"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H87"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="B86:D87"/>
-    <mergeCell ref="B88:L88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="B100:L100"/>
-    <mergeCell ref="B101:L101"/>
-    <mergeCell ref="B102:L102"/>
-    <mergeCell ref="B103:L103"/>
-    <mergeCell ref="B105:L105"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="B114:D115"/>
-    <mergeCell ref="G114:H116"/>
-    <mergeCell ref="I114:J116"/>
-    <mergeCell ref="K114:L116"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="B125:D126"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="E122:F124"/>
-    <mergeCell ref="G122:H124"/>
-    <mergeCell ref="I122:J124"/>
-    <mergeCell ref="K122:L124"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="J139:L139"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:L137"/>
-    <mergeCell ref="B133:L133"/>
     <mergeCell ref="B143:F143"/>
     <mergeCell ref="H143:L143"/>
     <mergeCell ref="B144:F144"/>
@@ -23203,6 +22906,297 @@
     <mergeCell ref="J138:L138"/>
     <mergeCell ref="B139:C139"/>
     <mergeCell ref="D139:F139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="J139:L139"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="B133:L133"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="B125:D126"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:F124"/>
+    <mergeCell ref="G122:H124"/>
+    <mergeCell ref="I122:J124"/>
+    <mergeCell ref="K122:L124"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="B105:L105"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="B114:D115"/>
+    <mergeCell ref="G114:H116"/>
+    <mergeCell ref="I114:J116"/>
+    <mergeCell ref="K114:L116"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="B100:L100"/>
+    <mergeCell ref="B101:L101"/>
+    <mergeCell ref="B102:L102"/>
+    <mergeCell ref="B103:L103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="B88:L88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H87"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="B86:D87"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H80"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J80"/>
+    <mergeCell ref="K75:L80"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:L69"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D51:L51"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:R1" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -38259,13 +38253,13 @@
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
       <c r="J1" s="8" t="s">
         <v>209</v>
       </c>
@@ -38517,24 +38511,24 @@
       <c r="B4" s="332" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="606" t="s">
+      <c r="C4" s="337" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="607">
+      <c r="D4" s="338">
         <v>2</v>
       </c>
-      <c r="E4" s="607">
+      <c r="E4" s="338">
         <v>50000</v>
       </c>
-      <c r="F4" s="607" t="str">
+      <c r="F4" s="338" t="str">
         <f ca="1">+IF('INGRESO DE INFORMACION'!$C$5&gt;'V1 GPS'!D4,"NO","SI")</f>
         <v>SI</v>
       </c>
-      <c r="G4" s="607" t="str">
+      <c r="G4" s="338" t="str">
         <f>+IF('INGRESO DE INFORMACION'!$F$11&gt;'V1 GPS'!E4,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H4" s="607" t="str">
+      <c r="H4" s="338" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SI</v>
       </c>
@@ -39543,24 +39537,24 @@
       <c r="B13" s="332" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="606" t="s">
+      <c r="C13" s="337" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="607">
+      <c r="D13" s="338">
         <v>2</v>
       </c>
-      <c r="E13" s="607">
+      <c r="E13" s="338">
         <v>50000</v>
       </c>
-      <c r="F13" s="607" t="str">
+      <c r="F13" s="338" t="str">
         <f ca="1">+IF('INGRESO DE INFORMACION'!$C$5&gt;'V1 GPS'!D13,"NO","SI")</f>
         <v>SI</v>
       </c>
-      <c r="G13" s="607" t="str">
+      <c r="G13" s="338" t="str">
         <f>+IF('INGRESO DE INFORMACION'!$F$11&gt;'V1 GPS'!E13,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H13" s="607" t="str">
+      <c r="H13" s="338" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SI</v>
       </c>
@@ -39657,24 +39651,24 @@
       <c r="B14" s="332" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="606" t="s">
+      <c r="C14" s="337" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="607">
+      <c r="D14" s="338">
         <v>2</v>
       </c>
-      <c r="E14" s="607">
+      <c r="E14" s="338">
         <v>50000</v>
       </c>
-      <c r="F14" s="607" t="str">
+      <c r="F14" s="338" t="str">
         <f ca="1">+IF('INGRESO DE INFORMACION'!$C$5&gt;'V1 GPS'!D14,"NO","SI")</f>
         <v>SI</v>
       </c>
-      <c r="G14" s="607" t="str">
+      <c r="G14" s="338" t="str">
         <f>+IF('INGRESO DE INFORMACION'!$F$11&gt;'V1 GPS'!E14,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H14" s="607" t="str">
+      <c r="H14" s="338" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SI</v>
       </c>
@@ -39910,27 +39904,27 @@
         <f t="shared" si="6"/>
         <v>MITSUBISHIMONTERO</v>
       </c>
-      <c r="K16" s="606" t="s">
+      <c r="K16" s="337" t="s">
         <v>98</v>
       </c>
       <c r="L16" s="332" t="s">
         <v>204</v>
       </c>
-      <c r="M16" s="607">
+      <c r="M16" s="338">
         <v>3</v>
       </c>
-      <c r="N16" s="607">
+      <c r="N16" s="338">
         <v>50000</v>
       </c>
-      <c r="O16" s="607" t="str">
+      <c r="O16" s="338" t="str">
         <f ca="1">+IF('INGRESO DE INFORMACION'!$C$5&gt;'V1 GPS'!M16,"NO","SI")</f>
         <v>SI</v>
       </c>
-      <c r="P16" s="607" t="str">
+      <c r="P16" s="338" t="str">
         <f>+IF('INGRESO DE INFORMACION'!$F$11&gt;'V1 GPS'!N16,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q16" s="607" t="str">
+      <c r="Q16" s="338" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>SI</v>
       </c>
@@ -40134,31 +40128,31 @@
         <f t="shared" ca="1" si="0"/>
         <v>SI</v>
       </c>
-      <c r="J18" s="603" t="str">
+      <c r="J18" s="334" t="str">
         <f t="shared" si="6"/>
         <v>SUZUKIGRAN NOMADE</v>
       </c>
-      <c r="K18" s="604" t="s">
+      <c r="K18" s="335" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="603" t="s">
+      <c r="L18" s="334" t="s">
         <v>206</v>
       </c>
-      <c r="M18" s="605">
+      <c r="M18" s="336">
         <v>3</v>
       </c>
-      <c r="N18" s="605">
+      <c r="N18" s="336">
         <v>50000</v>
       </c>
-      <c r="O18" s="605" t="str">
+      <c r="O18" s="336" t="str">
         <f ca="1">+IF('INGRESO DE INFORMACION'!$C$5&gt;'V1 GPS'!M18,"NO","SI")</f>
         <v>SI</v>
       </c>
-      <c r="P18" s="605" t="str">
+      <c r="P18" s="336" t="str">
         <f>+IF('INGRESO DE INFORMACION'!$F$11&gt;'V1 GPS'!N18,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q18" s="605" t="str">
+      <c r="Q18" s="336" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>SI</v>
       </c>
@@ -40252,27 +40246,27 @@
         <f t="shared" si="6"/>
         <v>TOYOTAFJ CRUISER</v>
       </c>
-      <c r="K19" s="606" t="s">
+      <c r="K19" s="337" t="s">
         <v>64</v>
       </c>
       <c r="L19" s="332" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="607">
+      <c r="M19" s="338">
         <v>3</v>
       </c>
-      <c r="N19" s="607">
+      <c r="N19" s="338">
         <v>50000</v>
       </c>
-      <c r="O19" s="607" t="str">
+      <c r="O19" s="338" t="str">
         <f ca="1">+IF('INGRESO DE INFORMACION'!$C$5&gt;'V1 GPS'!M19,"NO","SI")</f>
         <v>SI</v>
       </c>
-      <c r="P19" s="607" t="str">
+      <c r="P19" s="338" t="str">
         <f>+IF('INGRESO DE INFORMACION'!$F$11&gt;'V1 GPS'!N19,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q19" s="607" t="str">
+      <c r="Q19" s="338" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>SI</v>
       </c>
@@ -40480,27 +40474,27 @@
         <f t="shared" si="6"/>
         <v>TOYOTAHILANDER</v>
       </c>
-      <c r="K21" s="606" t="s">
+      <c r="K21" s="337" t="s">
         <v>64</v>
       </c>
       <c r="L21" s="332" t="s">
         <v>207</v>
       </c>
-      <c r="M21" s="607">
+      <c r="M21" s="338">
         <v>3</v>
       </c>
-      <c r="N21" s="607">
+      <c r="N21" s="338">
         <v>50000</v>
       </c>
-      <c r="O21" s="607" t="str">
+      <c r="O21" s="338" t="str">
         <f ca="1">+IF('INGRESO DE INFORMACION'!$C$5&gt;'V1 GPS'!M21,"NO","SI")</f>
         <v>SI</v>
       </c>
-      <c r="P21" s="607" t="str">
+      <c r="P21" s="338" t="str">
         <f>+IF('INGRESO DE INFORMACION'!$F$11&gt;'V1 GPS'!N21,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Q21" s="607" t="str">
+      <c r="Q21" s="338" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>SI</v>
       </c>
@@ -42250,19 +42244,19 @@
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="1" style="609" customWidth="1"/>
+    <col min="6" max="6" width="1" style="340" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
-    <col min="12" max="12" width="1" style="609" customWidth="1"/>
+    <col min="12" max="12" width="1" style="340" customWidth="1"/>
     <col min="13" max="13" width="5.83203125" customWidth="1"/>
     <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.83203125" customWidth="1"/>
-    <col min="18" max="18" width="1" style="609" customWidth="1"/>
+    <col min="18" max="18" width="1" style="340" customWidth="1"/>
     <col min="19" max="19" width="5.83203125" customWidth="1"/>
     <col min="20" max="20" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -43018,7 +43012,7 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="I22" s="608"/>
+      <c r="I22" s="339"/>
       <c r="N22" t="s">
         <v>1576</v>
       </c>
@@ -43048,7 +43042,7 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="I23" s="608"/>
+      <c r="I23" s="339"/>
       <c r="N23" t="s">
         <v>1576</v>
       </c>
@@ -43078,7 +43072,7 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="I24" s="608"/>
+      <c r="I24" s="339"/>
       <c r="N24" t="s">
         <v>1576</v>
       </c>
@@ -43099,7 +43093,7 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="I25" s="608"/>
+      <c r="I25" s="339"/>
       <c r="N25" t="s">
         <v>1576</v>
       </c>
@@ -43111,10 +43105,10 @@
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="I26" s="608"/>
+      <c r="I26" s="339"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="I27" s="608"/>
+      <c r="I27" s="339"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
